--- a/오류분석/2022_07_06_Labeling_오류분석.xlsx
+++ b/오류분석/2022_07_06_Labeling_오류분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD652CC0-90A5-41CE-A91A-704D95D93A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D761DA-7194-4BCD-8C77-9709B36CFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1065" windowWidth="22530" windowHeight="13785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25095" yWindow="2070" windowWidth="22530" windowHeight="13785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -10938,17 +10938,68 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10962,65 +11013,14 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11037,26 +11037,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11068,10 +11059,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -14409,16 +14409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>469440</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640890</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>48082</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>181432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14441,7 +14441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10070640" y="47196375"/>
+          <a:off x="8870490" y="48167925"/>
           <a:ext cx="2045160" cy="2762707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14498,15 +14498,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>147625</xdr:rowOff>
+      <xdr:rowOff>138100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>19713</xdr:rowOff>
+      <xdr:rowOff>10188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14529,7 +14529,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10372725" y="47124925"/>
+          <a:off x="10448925" y="47115400"/>
           <a:ext cx="1743075" cy="2805788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14542,15 +14542,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>575671</xdr:colOff>
+      <xdr:colOff>642346</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>524242</xdr:colOff>
+      <xdr:colOff>590917</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>57845</xdr:rowOff>
+      <xdr:rowOff>143570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14573,7 +14573,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10862671" y="46586775"/>
+          <a:off x="10929346" y="46672500"/>
           <a:ext cx="2005971" cy="3801170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14586,15 +14586,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>213674</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>451799</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>381433</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>191372</xdr:rowOff>
+      <xdr:colOff>619558</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14617,8 +14617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11186474" y="46253400"/>
-          <a:ext cx="2225159" cy="4477622"/>
+          <a:off x="11424599" y="46729650"/>
+          <a:ext cx="2225159" cy="3524250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15511,16 +15511,16 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="21" customHeight="1" thickBot="1">
-      <c r="C8" s="105"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="3:8" ht="63.75" customHeight="1">
       <c r="C9" s="77">
@@ -15547,12 +15547,12 @@
       <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="3:8" ht="63.75" customHeight="1">
       <c r="C11" s="77">
@@ -15579,12 +15579,12 @@
       <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="96"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="3:8" ht="69.75" customHeight="1">
       <c r="C13" s="77">
@@ -15611,12 +15611,12 @@
       <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="3:8" ht="53.25" customHeight="1">
       <c r="C15" s="77">
@@ -15643,12 +15643,12 @@
       <c r="D16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="3:8" ht="68.25" customHeight="1">
       <c r="C17" s="77">
@@ -15675,12 +15675,12 @@
       <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="3:8" ht="44.25" customHeight="1">
       <c r="C19" s="77">
@@ -15707,12 +15707,12 @@
       <c r="D20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
     </row>
     <row r="21" spans="3:8" ht="90" customHeight="1">
       <c r="C21" s="77">
@@ -15739,12 +15739,12 @@
       <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="3:8" ht="57.75" customHeight="1">
       <c r="C23" s="77">
@@ -15771,12 +15771,12 @@
       <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="96"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
     </row>
     <row r="25" spans="3:8" ht="101.25" customHeight="1">
       <c r="C25" s="77">
@@ -15803,12 +15803,12 @@
       <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1">
       <c r="C27" s="77">
@@ -15835,12 +15835,12 @@
       <c r="D28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="107"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88"/>
     </row>
     <row r="29" spans="3:8" ht="48.75" customHeight="1">
       <c r="C29" s="77">
@@ -15867,12 +15867,12 @@
       <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" spans="3:8" ht="80.25" customHeight="1">
       <c r="C31" s="77">
@@ -15899,12 +15899,12 @@
       <c r="D32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
     </row>
     <row r="33" spans="3:8" ht="89.25" customHeight="1">
       <c r="C33" s="77">
@@ -15931,12 +15931,12 @@
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
     </row>
     <row r="35" spans="3:8" ht="47.25" customHeight="1">
       <c r="C35" s="77">
@@ -15963,12 +15963,12 @@
       <c r="D36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="92"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
     </row>
     <row r="37" spans="3:8" ht="101.25" customHeight="1">
       <c r="C37" s="77">
@@ -15995,12 +15995,12 @@
       <c r="D38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="96"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
     </row>
     <row r="39" spans="3:8" ht="60.75" customHeight="1">
       <c r="C39" s="77">
@@ -16027,12 +16027,12 @@
       <c r="D40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="92"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
     </row>
     <row r="41" spans="3:8" ht="35.1" customHeight="1">
       <c r="C41" s="77">
@@ -16059,12 +16059,12 @@
       <c r="D42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
     </row>
     <row r="43" spans="3:8" ht="35.1" customHeight="1">
       <c r="C43" s="77">
@@ -16091,12 +16091,12 @@
       <c r="D44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="101"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="3:8" ht="16.5" customHeight="1">
       <c r="C45" s="34"/>
@@ -16203,12 +16203,12 @@
       <c r="D54" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="85" t="s">
+      <c r="E54" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="103"/>
     </row>
     <row r="55" spans="3:8">
       <c r="D55" s="3"/>
@@ -16313,12 +16313,12 @@
       <c r="D64" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="92"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="3:8">
       <c r="D65" s="3"/>
@@ -16423,12 +16423,12 @@
       <c r="D74" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="102" t="s">
+      <c r="E74" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="92"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="86"/>
     </row>
     <row r="75" spans="3:8" ht="33" customHeight="1">
       <c r="C75" s="77">
@@ -16455,12 +16455,12 @@
       <c r="D76" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="96"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="92"/>
     </row>
     <row r="77" spans="3:8" ht="64.5" customHeight="1">
       <c r="C77" s="77">
@@ -16487,12 +16487,12 @@
       <c r="D78" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="96"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="92"/>
     </row>
     <row r="79" spans="3:8" ht="42" customHeight="1">
       <c r="D79" s="3"/>
@@ -16590,12 +16590,12 @@
       <c r="D87" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="90" t="s">
+      <c r="E87" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="92"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="86"/>
     </row>
     <row r="88" spans="3:8" ht="45" customHeight="1">
       <c r="C88" s="77">
@@ -16622,12 +16622,12 @@
       <c r="D89" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="91" t="s">
+      <c r="E89" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="92"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="86"/>
     </row>
     <row r="90" spans="3:8" ht="45" customHeight="1">
       <c r="C90" s="77">
@@ -16654,12 +16654,12 @@
       <c r="D91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="90" t="s">
+      <c r="E91" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="96"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="92"/>
     </row>
     <row r="92" spans="3:8">
       <c r="D92" s="3"/>
@@ -16796,12 +16796,12 @@
       <c r="D103" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="87" t="s">
+      <c r="E103" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="89"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="106"/>
     </row>
     <row r="104" spans="3:8" ht="43.5" customHeight="1">
       <c r="C104" s="77">
@@ -16828,12 +16828,12 @@
       <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="82" t="s">
+      <c r="E105" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="84"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="109"/>
     </row>
     <row r="106" spans="3:8">
       <c r="D106" s="3"/>
@@ -17198,7 +17198,7 @@
       <c r="H137" s="81"/>
     </row>
     <row r="138" spans="3:14" ht="94.5" customHeight="1">
-      <c r="C138" s="108">
+      <c r="C138" s="82">
         <v>2</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -17219,7 +17219,7 @@
       <c r="I138" s="31"/>
     </row>
     <row r="139" spans="3:14" ht="121.5" customHeight="1" thickBot="1">
-      <c r="C139" s="109"/>
+      <c r="C139" s="83"/>
       <c r="D139" s="13" t="s">
         <v>7</v>
       </c>
@@ -17315,7 +17315,7 @@
       </c>
     </row>
     <row r="148" spans="3:8" ht="33" customHeight="1">
-      <c r="C148" s="108">
+      <c r="C148" s="82">
         <v>1</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -17335,7 +17335,7 @@
       </c>
     </row>
     <row r="149" spans="3:8" ht="33" customHeight="1" thickBot="1">
-      <c r="C149" s="109"/>
+      <c r="C149" s="83"/>
       <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
@@ -17347,7 +17347,7 @@
       <c r="H149" s="81"/>
     </row>
     <row r="150" spans="3:8" ht="66" customHeight="1">
-      <c r="C150" s="108">
+      <c r="C150" s="82">
         <v>2</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -17367,7 +17367,7 @@
       </c>
     </row>
     <row r="151" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C151" s="109"/>
+      <c r="C151" s="83"/>
       <c r="D151" s="13" t="s">
         <v>7</v>
       </c>
@@ -17813,30 +17813,88 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="C179:E180"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="E183:H183"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="E173:H173"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="C169:E170"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="C157:E158"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E151:H151"/>
-    <mergeCell ref="C145:E146"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C189:E190"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E193:H193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="E195:H195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="C133:E134"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C121:E122"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C111:E112"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C97:E98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="E28:H28"/>
@@ -17861,88 +17919,30 @@
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C97:E98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C121:E122"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C111:E112"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C133:E134"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C189:E190"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="E193:H193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="E195:H195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="C157:E158"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="C145:E146"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C179:E180"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="E183:H183"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="C169:E170"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18067,12 +18067,12 @@
       <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="84" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
       <c r="J7" s="68" t="s">
         <v>155</v>
       </c>
@@ -18115,12 +18115,12 @@
       <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="J9" s="68" t="s">
         <v>450</v>
       </c>
@@ -18163,12 +18163,12 @@
       <c r="D11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="96"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
       <c r="J11" s="68" t="s">
         <v>453</v>
       </c>
@@ -18211,12 +18211,12 @@
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="J13" s="68" t="s">
         <v>455</v>
       </c>
@@ -18259,12 +18259,12 @@
       <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="J15" s="68" t="s">
         <v>458</v>
       </c>
@@ -18306,12 +18306,12 @@
       <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="96"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
       <c r="J17" s="68" t="s">
         <v>459</v>
       </c>
@@ -18354,12 +18354,12 @@
       <c r="D19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
       <c r="J19" s="68" t="s">
         <v>461</v>
       </c>
@@ -18402,12 +18402,12 @@
       <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="3:12" ht="35.25" customHeight="1">
       <c r="C22" s="77">
@@ -18441,12 +18441,12 @@
       <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
       <c r="J23" s="68" t="s">
         <v>11</v>
       </c>
@@ -18487,12 +18487,12 @@
       <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="87" t="s">
         <v>463</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="3:12" ht="35.25" customHeight="1">
       <c r="C26" s="77">
@@ -18519,12 +18519,12 @@
       <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="87" t="s">
         <v>444</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
     </row>
     <row r="28" spans="3:12" ht="35.25" customHeight="1">
       <c r="C28" s="77"/>
@@ -18539,10 +18539,10 @@
       <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
     </row>
     <row r="30" spans="3:12" ht="90" customHeight="1">
       <c r="C30" s="77"/>
@@ -18557,10 +18557,10 @@
       <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" spans="3:12" ht="16.5" customHeight="1">
       <c r="C32" s="34"/>
@@ -18653,10 +18653,10 @@
     <row r="41" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C41" s="78"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="3:8">
       <c r="D42" s="3"/>
@@ -18761,12 +18761,12 @@
       <c r="D51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="96"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" spans="3:8" ht="79.5" customHeight="1">
       <c r="C52" s="77">
@@ -18793,12 +18793,12 @@
       <c r="D53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="96"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="54" spans="3:8" ht="45.75" customHeight="1">
       <c r="C54" s="77">
@@ -18825,12 +18825,12 @@
       <c r="D55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="96"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
     </row>
     <row r="56" spans="3:8" ht="56.25" customHeight="1">
       <c r="C56" s="77">
@@ -18857,12 +18857,12 @@
       <c r="D57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="91" t="s">
         <v>369</v>
       </c>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="96"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="92"/>
     </row>
     <row r="58" spans="3:8" ht="45.75" customHeight="1">
       <c r="C58" s="77"/>
@@ -18877,10 +18877,10 @@
       <c r="D59" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="96"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="92"/>
     </row>
     <row r="60" spans="3:8" ht="58.5" customHeight="1">
       <c r="C60" s="77"/>
@@ -18895,10 +18895,10 @@
       <c r="D61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="96"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="92"/>
     </row>
     <row r="62" spans="3:8" ht="42" customHeight="1">
       <c r="D62" s="3"/>
@@ -19003,12 +19003,12 @@
       <c r="D71" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="90" t="s">
+      <c r="E71" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="86"/>
     </row>
     <row r="72" spans="3:8" ht="82.5" customHeight="1">
       <c r="C72" s="77">
@@ -19035,12 +19035,12 @@
       <c r="D73" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="90" t="s">
+      <c r="E73" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="92"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
     </row>
     <row r="74" spans="3:8" ht="30" customHeight="1">
       <c r="C74" s="77">
@@ -19067,12 +19067,12 @@
       <c r="D75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="91" t="s">
         <v>337</v>
       </c>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="92"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="86"/>
     </row>
     <row r="76" spans="3:8" ht="30" customHeight="1">
       <c r="C76" s="77"/>
@@ -19087,10 +19087,10 @@
       <c r="D77" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="92"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="86"/>
     </row>
     <row r="78" spans="3:8" ht="30" customHeight="1">
       <c r="C78" s="77"/>
@@ -19105,10 +19105,10 @@
       <c r="D79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="90"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="92"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="86"/>
     </row>
     <row r="80" spans="3:8" ht="96" customHeight="1">
       <c r="C80" s="77"/>
@@ -19123,10 +19123,10 @@
       <c r="D81" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="90"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="92"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="86"/>
     </row>
     <row r="82" spans="3:8">
       <c r="D82" s="3"/>
@@ -19207,7 +19207,7 @@
       </c>
     </row>
     <row r="90" spans="3:8" ht="48.75" customHeight="1">
-      <c r="C90" s="115">
+      <c r="C90" s="116">
         <v>1</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -19227,16 +19227,16 @@
       </c>
     </row>
     <row r="91" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
-      <c r="C91" s="116"/>
+      <c r="C91" s="117"/>
       <c r="D91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="91" t="s">
+      <c r="E91" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="92"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="86"/>
     </row>
     <row r="92" spans="3:8" ht="48.75" customHeight="1">
       <c r="C92" s="77">
@@ -19263,12 +19263,12 @@
       <c r="D93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="90" t="s">
+      <c r="E93" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="92"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="86"/>
     </row>
     <row r="94" spans="3:8" ht="48.75" customHeight="1">
       <c r="C94" s="77">
@@ -19295,12 +19295,12 @@
       <c r="D95" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="90" t="s">
+      <c r="E95" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="92"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="86"/>
     </row>
     <row r="96" spans="3:8" ht="48.75" customHeight="1">
       <c r="C96" s="77">
@@ -19327,12 +19327,12 @@
       <c r="D97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="90" t="s">
+      <c r="E97" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="92"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="86"/>
     </row>
     <row r="98" spans="3:8" ht="48.75" customHeight="1">
       <c r="C98" s="77">
@@ -19359,12 +19359,12 @@
       <c r="D99" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="90" t="s">
+      <c r="E99" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="92"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="86"/>
     </row>
     <row r="100" spans="3:8" ht="48.75" customHeight="1">
       <c r="C100" s="77">
@@ -19391,12 +19391,12 @@
       <c r="D101" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="90" t="s">
+      <c r="E101" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="F101" s="91"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="92"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="86"/>
     </row>
     <row r="102" spans="3:8" ht="48.75" customHeight="1">
       <c r="C102" s="77">
@@ -19423,12 +19423,12 @@
       <c r="D103" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="90" t="s">
+      <c r="E103" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="92"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="86"/>
     </row>
     <row r="104" spans="3:8" ht="48.75" customHeight="1">
       <c r="C104" s="77">
@@ -19455,12 +19455,12 @@
       <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="90" t="s">
+      <c r="E105" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="92"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="86"/>
     </row>
     <row r="106" spans="3:8" ht="48.75" customHeight="1">
       <c r="C106" s="77">
@@ -19487,12 +19487,12 @@
       <c r="D107" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="90" t="s">
+      <c r="E107" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="92"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="86"/>
     </row>
     <row r="108" spans="3:8" ht="48.75" customHeight="1">
       <c r="C108" s="77">
@@ -19519,12 +19519,12 @@
       <c r="D109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="90" t="s">
+      <c r="E109" s="91" t="s">
         <v>331</v>
       </c>
-      <c r="F109" s="91"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="92"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="86"/>
     </row>
     <row r="110" spans="3:8" ht="48.75" customHeight="1">
       <c r="C110" s="77">
@@ -19551,12 +19551,12 @@
       <c r="D111" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="92"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="86"/>
     </row>
     <row r="112" spans="3:8" ht="48.75" customHeight="1">
       <c r="C112" s="77">
@@ -19583,12 +19583,12 @@
       <c r="D113" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="90" t="s">
+      <c r="E113" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="92"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="86"/>
     </row>
     <row r="114" spans="3:8" ht="16.5" customHeight="1">
       <c r="C114" s="77">
@@ -19615,12 +19615,12 @@
       <c r="D115" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="92"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="86"/>
     </row>
     <row r="116" spans="3:8" ht="72" customHeight="1">
       <c r="C116" s="77">
@@ -19647,10 +19647,10 @@
       <c r="D117" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="90"/>
-      <c r="F117" s="91"/>
-      <c r="G117" s="91"/>
-      <c r="H117" s="92"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="86"/>
     </row>
     <row r="118" spans="3:8" ht="33">
       <c r="C118" s="77">
@@ -19677,12 +19677,12 @@
       <c r="D119" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="90" t="s">
+      <c r="E119" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="92"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="86"/>
     </row>
     <row r="120" spans="3:8" ht="16.5" customHeight="1">
       <c r="C120" s="77">
@@ -19709,12 +19709,12 @@
       <c r="D121" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="92"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="86"/>
     </row>
     <row r="122" spans="3:8" ht="49.5" customHeight="1">
       <c r="C122" s="77">
@@ -19741,12 +19741,12 @@
       <c r="D123" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="92"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="86"/>
     </row>
     <row r="124" spans="3:8" ht="69" customHeight="1">
       <c r="C124" s="77">
@@ -19773,12 +19773,12 @@
       <c r="D125" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="90" t="s">
+      <c r="E125" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="92"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="86"/>
     </row>
     <row r="126" spans="3:8" ht="33">
       <c r="C126" s="77">
@@ -19805,12 +19805,12 @@
       <c r="D127" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="90" t="s">
+      <c r="E127" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="F127" s="91"/>
-      <c r="G127" s="91"/>
-      <c r="H127" s="92"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="86"/>
     </row>
     <row r="128" spans="3:8" ht="82.5">
       <c r="C128" s="77">
@@ -19837,12 +19837,12 @@
       <c r="D129" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="F129" s="91"/>
-      <c r="G129" s="91"/>
-      <c r="H129" s="92"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="86"/>
     </row>
     <row r="130" spans="3:9" ht="78.75" customHeight="1">
       <c r="C130" s="77">
@@ -19869,12 +19869,12 @@
       <c r="D131" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="90" t="s">
+      <c r="E131" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="F131" s="91"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="92"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="86"/>
     </row>
     <row r="132" spans="3:9" ht="40.5" customHeight="1">
       <c r="C132" s="77">
@@ -19901,12 +19901,12 @@
       <c r="D133" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="90" t="s">
+      <c r="E133" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="F133" s="91"/>
-      <c r="G133" s="91"/>
-      <c r="H133" s="92"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="86"/>
     </row>
     <row r="134" spans="3:9" ht="40.5" customHeight="1">
       <c r="C134" s="77">
@@ -19933,12 +19933,12 @@
       <c r="D135" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="90" t="s">
+      <c r="E135" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="F135" s="91"/>
-      <c r="G135" s="91"/>
-      <c r="H135" s="92"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="86"/>
     </row>
     <row r="136" spans="3:9" ht="102" customHeight="1">
       <c r="C136" s="77">
@@ -19965,12 +19965,12 @@
       <c r="D137" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="90" t="s">
+      <c r="E137" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="F137" s="91"/>
-      <c r="G137" s="91"/>
-      <c r="H137" s="92"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="86"/>
     </row>
     <row r="138" spans="3:9" ht="107.25" customHeight="1">
       <c r="C138" s="77">
@@ -19997,12 +19997,12 @@
       <c r="D139" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="90" t="s">
+      <c r="E139" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="F139" s="91"/>
-      <c r="G139" s="91"/>
-      <c r="H139" s="92"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="86"/>
     </row>
     <row r="140" spans="3:9" ht="40.5" customHeight="1">
       <c r="C140" s="77">
@@ -20029,12 +20029,12 @@
       <c r="D141" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="90" t="s">
+      <c r="E141" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="F141" s="91"/>
-      <c r="G141" s="91"/>
-      <c r="H141" s="92"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="86"/>
     </row>
     <row r="142" spans="3:9" ht="40.5" customHeight="1">
       <c r="C142" s="77">
@@ -20064,12 +20064,12 @@
       <c r="D143" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="90" t="s">
+      <c r="E143" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="F143" s="91"/>
-      <c r="G143" s="91"/>
-      <c r="H143" s="92"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="86"/>
     </row>
     <row r="144" spans="3:9" ht="66">
       <c r="C144" s="77">
@@ -20096,12 +20096,12 @@
       <c r="D145" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="90" t="s">
+      <c r="E145" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="92"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="86"/>
     </row>
     <row r="146" spans="3:8" ht="40.5" customHeight="1">
       <c r="C146" s="77">
@@ -20128,12 +20128,12 @@
       <c r="D147" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="90" t="s">
+      <c r="E147" s="91" t="s">
         <v>413</v>
       </c>
-      <c r="F147" s="91"/>
-      <c r="G147" s="91"/>
-      <c r="H147" s="92"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="86"/>
     </row>
     <row r="148" spans="3:8" ht="49.5">
       <c r="C148" s="77">
@@ -20160,12 +20160,12 @@
       <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="90" t="s">
+      <c r="E149" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="F149" s="91"/>
-      <c r="G149" s="91"/>
-      <c r="H149" s="92"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="86"/>
     </row>
     <row r="150" spans="3:8" ht="49.5">
       <c r="C150" s="77">
@@ -20192,12 +20192,12 @@
       <c r="D151" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="90" t="s">
+      <c r="E151" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="F151" s="91"/>
-      <c r="G151" s="91"/>
-      <c r="H151" s="92"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="86"/>
     </row>
     <row r="152" spans="3:8" ht="40.5" customHeight="1">
       <c r="C152" s="77">
@@ -20224,12 +20224,12 @@
       <c r="D153" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="90" t="s">
+      <c r="E153" s="91" t="s">
         <v>428</v>
       </c>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91"/>
-      <c r="H153" s="92"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="86"/>
     </row>
     <row r="154" spans="3:8" ht="69.75" customHeight="1">
       <c r="C154" s="77">
@@ -20256,12 +20256,12 @@
       <c r="D155" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="90" t="s">
+      <c r="E155" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="F155" s="91"/>
-      <c r="G155" s="91"/>
-      <c r="H155" s="92"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="86"/>
     </row>
     <row r="156" spans="3:8" ht="40.5" customHeight="1">
       <c r="C156" s="77">
@@ -20288,12 +20288,12 @@
       <c r="D157" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="90" t="s">
+      <c r="E157" s="91" t="s">
         <v>436</v>
       </c>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="92"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="86"/>
     </row>
     <row r="158" spans="3:8" ht="40.5" customHeight="1">
       <c r="C158" s="77">
@@ -20320,12 +20320,12 @@
       <c r="D159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="90" t="s">
+      <c r="E159" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="F159" s="91"/>
-      <c r="G159" s="91"/>
-      <c r="H159" s="92"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="86"/>
     </row>
     <row r="160" spans="3:8" ht="40.5" customHeight="1">
       <c r="C160" s="77">
@@ -20352,12 +20352,12 @@
       <c r="D161" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="90" t="s">
+      <c r="E161" s="91" t="s">
         <v>442</v>
       </c>
-      <c r="F161" s="91"/>
-      <c r="G161" s="91"/>
-      <c r="H161" s="92"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="86"/>
     </row>
     <row r="162" spans="3:8" ht="40.5" customHeight="1">
       <c r="C162" s="77">
@@ -20384,12 +20384,12 @@
       <c r="D163" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="90" t="s">
+      <c r="E163" s="91" t="s">
         <v>446</v>
       </c>
-      <c r="F163" s="91"/>
-      <c r="G163" s="91"/>
-      <c r="H163" s="92"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="86"/>
     </row>
     <row r="164" spans="3:8" ht="49.5">
       <c r="C164" s="77">
@@ -20416,12 +20416,12 @@
       <c r="D165" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="90" t="s">
+      <c r="E165" s="91" t="s">
         <v>468</v>
       </c>
-      <c r="F165" s="91"/>
-      <c r="G165" s="91"/>
-      <c r="H165" s="92"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="86"/>
     </row>
     <row r="166" spans="3:8" ht="40.5" customHeight="1">
       <c r="C166" s="77">
@@ -20448,12 +20448,12 @@
       <c r="D167" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="90" t="s">
+      <c r="E167" s="91" t="s">
         <v>471</v>
       </c>
-      <c r="F167" s="91"/>
-      <c r="G167" s="91"/>
-      <c r="H167" s="92"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="86"/>
     </row>
     <row r="168" spans="3:8" ht="40.5" customHeight="1">
       <c r="C168" s="77">
@@ -20480,12 +20480,12 @@
       <c r="D169" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="90" t="s">
+      <c r="E169" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="F169" s="91"/>
-      <c r="G169" s="91"/>
-      <c r="H169" s="92"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="86"/>
     </row>
     <row r="170" spans="3:8" ht="40.5" customHeight="1">
       <c r="C170" s="77"/>
@@ -20500,10 +20500,10 @@
       <c r="D171" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="90"/>
-      <c r="F171" s="91"/>
-      <c r="G171" s="91"/>
-      <c r="H171" s="92"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="86"/>
     </row>
     <row r="172" spans="3:8" ht="40.5" customHeight="1">
       <c r="C172" s="77"/>
@@ -20518,10 +20518,10 @@
       <c r="D173" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="90"/>
-      <c r="F173" s="91"/>
-      <c r="G173" s="91"/>
-      <c r="H173" s="92"/>
+      <c r="E173" s="91"/>
+      <c r="F173" s="85"/>
+      <c r="G173" s="85"/>
+      <c r="H173" s="86"/>
     </row>
     <row r="174" spans="3:8">
       <c r="C174" s="77"/>
@@ -20536,10 +20536,10 @@
       <c r="D175" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="90"/>
-      <c r="F175" s="91"/>
-      <c r="G175" s="91"/>
-      <c r="H175" s="92"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="86"/>
     </row>
     <row r="176" spans="3:8">
       <c r="D176" s="3"/>
@@ -21161,7 +21161,7 @@
       <c r="N227" s="3"/>
     </row>
     <row r="228" spans="3:14" ht="66">
-      <c r="C228" s="108">
+      <c r="C228" s="82">
         <v>1</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -21181,7 +21181,7 @@
       </c>
     </row>
     <row r="229" spans="3:14" ht="119.25" customHeight="1" thickBot="1">
-      <c r="C229" s="109"/>
+      <c r="C229" s="83"/>
       <c r="D229" s="13" t="s">
         <v>7</v>
       </c>
@@ -21193,7 +21193,7 @@
       <c r="H229" s="81"/>
     </row>
     <row r="230" spans="3:14" ht="119.25" customHeight="1">
-      <c r="C230" s="108">
+      <c r="C230" s="82">
         <v>2</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -21213,7 +21213,7 @@
       </c>
     </row>
     <row r="231" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C231" s="109"/>
+      <c r="C231" s="83"/>
       <c r="D231" s="13" t="s">
         <v>7</v>
       </c>
@@ -21223,7 +21223,7 @@
       <c r="H231" s="81"/>
     </row>
     <row r="232" spans="3:14" ht="16.5" customHeight="1">
-      <c r="C232" s="108">
+      <c r="C232" s="82">
         <v>3</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -21243,7 +21243,7 @@
       </c>
     </row>
     <row r="233" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C233" s="109"/>
+      <c r="C233" s="83"/>
       <c r="D233" s="13" t="s">
         <v>7</v>
       </c>
@@ -21253,7 +21253,7 @@
       <c r="H233" s="81"/>
     </row>
     <row r="234" spans="3:14" ht="16.5" customHeight="1">
-      <c r="C234" s="108">
+      <c r="C234" s="82">
         <v>4</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -21273,7 +21273,7 @@
       </c>
     </row>
     <row r="235" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C235" s="109"/>
+      <c r="C235" s="83"/>
       <c r="D235" s="13" t="s">
         <v>7</v>
       </c>
@@ -21361,7 +21361,7 @@
       </c>
     </row>
     <row r="244" spans="3:8" ht="66" customHeight="1">
-      <c r="C244" s="108">
+      <c r="C244" s="82">
         <v>1</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -21381,7 +21381,7 @@
       </c>
     </row>
     <row r="245" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C245" s="109"/>
+      <c r="C245" s="83"/>
       <c r="D245" s="13" t="s">
         <v>7</v>
       </c>
@@ -21393,7 +21393,7 @@
       <c r="H245" s="81"/>
     </row>
     <row r="246" spans="3:8" ht="65.25" customHeight="1">
-      <c r="C246" s="108">
+      <c r="C246" s="82">
         <v>2</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -21413,7 +21413,7 @@
       </c>
     </row>
     <row r="247" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C247" s="109"/>
+      <c r="C247" s="83"/>
       <c r="D247" s="13" t="s">
         <v>7</v>
       </c>
@@ -21425,7 +21425,7 @@
       <c r="H247" s="81"/>
     </row>
     <row r="248" spans="3:8" ht="40.5" customHeight="1">
-      <c r="C248" s="108">
+      <c r="C248" s="82">
         <v>3</v>
       </c>
       <c r="D248" s="6" t="s">
@@ -21445,7 +21445,7 @@
       </c>
     </row>
     <row r="249" spans="3:8" ht="96.75" customHeight="1" thickBot="1">
-      <c r="C249" s="109"/>
+      <c r="C249" s="83"/>
       <c r="D249" s="13" t="s">
         <v>7</v>
       </c>
@@ -21457,7 +21457,7 @@
       <c r="H249" s="81"/>
     </row>
     <row r="250" spans="3:8" ht="49.5">
-      <c r="C250" s="108">
+      <c r="C250" s="82">
         <v>4</v>
       </c>
       <c r="D250" s="6" t="s">
@@ -21477,7 +21477,7 @@
       </c>
     </row>
     <row r="251" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C251" s="109"/>
+      <c r="C251" s="83"/>
       <c r="D251" s="13" t="s">
         <v>7</v>
       </c>
@@ -21781,9 +21781,9 @@
       <c r="H285" s="113"/>
     </row>
     <row r="286" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="C286" s="117"/>
-      <c r="D286" s="117"/>
-      <c r="E286" s="117"/>
+      <c r="C286" s="115"/>
+      <c r="D286" s="115"/>
+      <c r="E286" s="115"/>
       <c r="F286" s="111"/>
       <c r="G286" s="114"/>
       <c r="H286" s="111"/>
@@ -21809,7 +21809,7 @@
       </c>
     </row>
     <row r="288" spans="3:9">
-      <c r="C288" s="108"/>
+      <c r="C288" s="82"/>
       <c r="D288" s="6"/>
       <c r="E288" s="30"/>
       <c r="F288" s="8"/>
@@ -21817,7 +21817,7 @@
       <c r="H288" s="12"/>
     </row>
     <row r="289" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C289" s="109"/>
+      <c r="C289" s="83"/>
       <c r="D289" s="13"/>
       <c r="E289" s="79"/>
       <c r="F289" s="80"/>
@@ -21876,7 +21876,7 @@
       </c>
     </row>
     <row r="298" spans="3:8" ht="49.5">
-      <c r="C298" s="108">
+      <c r="C298" s="82">
         <v>1</v>
       </c>
       <c r="D298" s="6" t="s">
@@ -21896,7 +21896,7 @@
       </c>
     </row>
     <row r="299" spans="3:8" ht="60" customHeight="1" thickBot="1">
-      <c r="C299" s="109"/>
+      <c r="C299" s="83"/>
       <c r="D299" s="13" t="s">
         <v>7</v>
       </c>
@@ -21908,7 +21908,7 @@
       <c r="H299" s="81"/>
     </row>
     <row r="300" spans="3:8" ht="84.75" customHeight="1">
-      <c r="C300" s="108">
+      <c r="C300" s="82">
         <v>2</v>
       </c>
       <c r="D300" s="6" t="s">
@@ -21928,7 +21928,7 @@
       </c>
     </row>
     <row r="301" spans="3:8">
-      <c r="C301" s="109"/>
+      <c r="C301" s="83"/>
       <c r="D301" s="13" t="s">
         <v>7</v>
       </c>
@@ -21940,7 +21940,7 @@
       <c r="H301" s="81"/>
     </row>
     <row r="302" spans="3:8" ht="33">
-      <c r="C302" s="108">
+      <c r="C302" s="82">
         <v>3</v>
       </c>
       <c r="D302" s="6" t="s">
@@ -21960,7 +21960,7 @@
       </c>
     </row>
     <row r="303" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C303" s="109"/>
+      <c r="C303" s="83"/>
       <c r="D303" s="13" t="s">
         <v>7</v>
       </c>
@@ -21972,7 +21972,7 @@
       <c r="H303" s="81"/>
     </row>
     <row r="304" spans="3:8" ht="42.75" customHeight="1">
-      <c r="C304" s="108">
+      <c r="C304" s="82">
         <v>3</v>
       </c>
       <c r="D304" s="6" t="s">
@@ -21992,7 +21992,7 @@
       </c>
     </row>
     <row r="305" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C305" s="109"/>
+      <c r="C305" s="83"/>
       <c r="D305" s="13" t="s">
         <v>7</v>
       </c>
@@ -22004,7 +22004,7 @@
       <c r="H305" s="81"/>
     </row>
     <row r="306" spans="3:8" ht="49.5">
-      <c r="C306" s="108">
+      <c r="C306" s="82">
         <v>4</v>
       </c>
       <c r="D306" s="6" t="s">
@@ -22024,7 +22024,7 @@
       </c>
     </row>
     <row r="307" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C307" s="109"/>
+      <c r="C307" s="83"/>
       <c r="D307" s="13" t="s">
         <v>7</v>
       </c>
@@ -22060,12 +22060,12 @@
       <c r="D309" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E309" s="97" t="s">
+      <c r="E309" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F309" s="91"/>
-      <c r="G309" s="91"/>
-      <c r="H309" s="92"/>
+      <c r="F309" s="85"/>
+      <c r="G309" s="85"/>
+      <c r="H309" s="86"/>
     </row>
     <row r="310" spans="3:8" ht="49.5">
       <c r="C310" s="77">
@@ -22092,12 +22092,12 @@
       <c r="D311" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E311" s="98" t="s">
+      <c r="E311" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="F311" s="91"/>
-      <c r="G311" s="91"/>
-      <c r="H311" s="92"/>
+      <c r="F311" s="85"/>
+      <c r="G311" s="85"/>
+      <c r="H311" s="86"/>
     </row>
     <row r="312" spans="3:8" ht="82.5">
       <c r="C312" s="77">
@@ -22124,15 +22124,15 @@
       <c r="D313" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E313" s="98" t="s">
+      <c r="E313" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="F313" s="91"/>
-      <c r="G313" s="91"/>
-      <c r="H313" s="92"/>
+      <c r="F313" s="85"/>
+      <c r="G313" s="85"/>
+      <c r="H313" s="86"/>
     </row>
     <row r="314" spans="3:8" ht="33">
-      <c r="C314" s="108">
+      <c r="C314" s="82">
         <v>8</v>
       </c>
       <c r="D314" s="6" t="s">
@@ -22152,7 +22152,7 @@
       </c>
     </row>
     <row r="315" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C315" s="109"/>
+      <c r="C315" s="83"/>
       <c r="D315" s="13" t="s">
         <v>7</v>
       </c>
@@ -22164,7 +22164,7 @@
       <c r="H315" s="81"/>
     </row>
     <row r="316" spans="3:8" ht="34.5" customHeight="1">
-      <c r="C316" s="108">
+      <c r="C316" s="82">
         <v>9</v>
       </c>
       <c r="D316" s="6" t="s">
@@ -22184,7 +22184,7 @@
       </c>
     </row>
     <row r="317" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C317" s="109"/>
+      <c r="C317" s="83"/>
       <c r="D317" s="13" t="s">
         <v>7</v>
       </c>
@@ -22196,7 +22196,7 @@
       <c r="H317" s="81"/>
     </row>
     <row r="318" spans="3:8">
-      <c r="C318" s="108"/>
+      <c r="C318" s="82"/>
       <c r="D318" s="6"/>
       <c r="E318" s="37"/>
       <c r="F318" s="15"/>
@@ -22204,7 +22204,7 @@
       <c r="H318" s="12"/>
     </row>
     <row r="319" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C319" s="109"/>
+      <c r="C319" s="83"/>
       <c r="D319" s="13" t="s">
         <v>7</v>
       </c>
@@ -22214,7 +22214,7 @@
       <c r="H319" s="81"/>
     </row>
     <row r="320" spans="3:8">
-      <c r="C320" s="108"/>
+      <c r="C320" s="82"/>
       <c r="D320" s="6"/>
       <c r="E320" s="37"/>
       <c r="F320" s="15"/>
@@ -22222,7 +22222,7 @@
       <c r="H320" s="12"/>
     </row>
     <row r="321" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C321" s="109"/>
+      <c r="C321" s="83"/>
       <c r="D321" s="13" t="s">
         <v>7</v>
       </c>
@@ -22283,7 +22283,7 @@
       </c>
     </row>
     <row r="332" spans="3:8" ht="49.5">
-      <c r="C332" s="108">
+      <c r="C332" s="82">
         <v>1</v>
       </c>
       <c r="D332" s="6" t="s">
@@ -22303,7 +22303,7 @@
       </c>
     </row>
     <row r="333" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C333" s="109"/>
+      <c r="C333" s="83"/>
       <c r="D333" s="13" t="s">
         <v>7</v>
       </c>
@@ -22315,7 +22315,7 @@
       <c r="H333" s="81"/>
     </row>
     <row r="334" spans="3:8" ht="82.5">
-      <c r="C334" s="108">
+      <c r="C334" s="82">
         <v>2</v>
       </c>
       <c r="D334" s="6" t="s">
@@ -22335,7 +22335,7 @@
       </c>
     </row>
     <row r="335" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C335" s="109"/>
+      <c r="C335" s="83"/>
       <c r="D335" s="13" t="s">
         <v>7</v>
       </c>
@@ -22347,7 +22347,7 @@
       <c r="H335" s="81"/>
     </row>
     <row r="336" spans="3:8" ht="66">
-      <c r="C336" s="108">
+      <c r="C336" s="82">
         <v>3</v>
       </c>
       <c r="D336" s="6" t="s">
@@ -22367,7 +22367,7 @@
       </c>
     </row>
     <row r="337" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C337" s="109"/>
+      <c r="C337" s="83"/>
       <c r="D337" s="13" t="s">
         <v>7</v>
       </c>
@@ -22379,7 +22379,7 @@
       <c r="H337" s="81"/>
     </row>
     <row r="338" spans="3:8" ht="33">
-      <c r="C338" s="108">
+      <c r="C338" s="82">
         <v>4</v>
       </c>
       <c r="D338" s="6" t="s">
@@ -22399,7 +22399,7 @@
       </c>
     </row>
     <row r="339" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C339" s="109"/>
+      <c r="C339" s="83"/>
       <c r="D339" s="13" t="s">
         <v>7</v>
       </c>
@@ -22411,7 +22411,7 @@
       <c r="H339" s="81"/>
     </row>
     <row r="340" spans="3:8" ht="33">
-      <c r="C340" s="108">
+      <c r="C340" s="82">
         <v>5</v>
       </c>
       <c r="D340" s="6" t="s">
@@ -22431,7 +22431,7 @@
       </c>
     </row>
     <row r="341" spans="3:8" ht="76.5" customHeight="1" thickBot="1">
-      <c r="C341" s="109"/>
+      <c r="C341" s="83"/>
       <c r="D341" s="13" t="s">
         <v>7</v>
       </c>
@@ -22443,7 +22443,7 @@
       <c r="H341" s="81"/>
     </row>
     <row r="342" spans="3:8">
-      <c r="C342" s="108"/>
+      <c r="C342" s="82"/>
       <c r="D342" s="6"/>
       <c r="E342" s="63"/>
       <c r="F342" s="27"/>
@@ -22451,7 +22451,7 @@
       <c r="H342" s="59"/>
     </row>
     <row r="343" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C343" s="109"/>
+      <c r="C343" s="83"/>
       <c r="D343" s="13" t="s">
         <v>7</v>
       </c>
@@ -22461,7 +22461,7 @@
       <c r="H343" s="81"/>
     </row>
     <row r="344" spans="3:8">
-      <c r="C344" s="108"/>
+      <c r="C344" s="82"/>
       <c r="D344" s="6"/>
       <c r="E344" s="63"/>
       <c r="F344" s="27"/>
@@ -22469,7 +22469,7 @@
       <c r="H344" s="59"/>
     </row>
     <row r="345" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C345" s="109"/>
+      <c r="C345" s="83"/>
       <c r="D345" s="13" t="s">
         <v>7</v>
       </c>
@@ -22480,20 +22480,234 @@
     </row>
   </sheetData>
   <mergeCells count="276">
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="E319:H319"/>
-    <mergeCell ref="E321:H321"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E197:H197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="E191:H191"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="E189:H189"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="E315:H315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="E317:H317"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="E337:H337"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="E219:H219"/>
+    <mergeCell ref="C225:E226"/>
+    <mergeCell ref="C205:E206"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="C181:E182"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="E199:H199"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="E175:H175"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="C257:E258"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="G241:H242"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="G257:H258"/>
+    <mergeCell ref="C241:E242"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="E229:H229"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="E231:H231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="E233:H233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="E301:H301"/>
+    <mergeCell ref="C295:E296"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="E299:H299"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="E289:H289"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="C269:E270"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="E279:H279"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="G269:H270"/>
+    <mergeCell ref="E275:H275"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="E273:H273"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="E277:H277"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="E335:H335"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="E307:H307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="E309:H309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="E311:H311"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="E313:H313"/>
+    <mergeCell ref="C329:E330"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="E333:H333"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="E303:H303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="E305:H305"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E117:H117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E119:H119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="E187:H187"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="E147:H147"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="E145:H145"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="E185:H185"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E169:H169"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="E167:H167"/>
+    <mergeCell ref="E171:H171"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="E345:H345"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E131:H131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E133:H133"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E135:H135"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="E143:H143"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="E339:H339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="E341:H341"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="E343:H343"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:H206"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:H226"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="G285:H286"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="G295:H296"/>
+    <mergeCell ref="F329:F330"/>
+    <mergeCell ref="G329:H330"/>
+    <mergeCell ref="C285:E286"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="E213:H213"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="G87:H88"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="C160:C161"/>
@@ -22518,42 +22732,22 @@
     <mergeCell ref="E165:H165"/>
     <mergeCell ref="C162:C163"/>
     <mergeCell ref="E163:H163"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="G87:H88"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="E319:H319"/>
+    <mergeCell ref="E321:H321"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="E191:H191"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="E189:H189"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="E315:H315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="E317:H317"/>
     <mergeCell ref="E247:H247"/>
     <mergeCell ref="C248:C249"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="E339:H339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="E341:H341"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="E343:H343"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:H182"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:H206"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:H226"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="G285:H286"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="G295:H296"/>
-    <mergeCell ref="F329:F330"/>
-    <mergeCell ref="G329:H330"/>
-    <mergeCell ref="C285:E286"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="E213:H213"/>
     <mergeCell ref="C210:C211"/>
     <mergeCell ref="E211:H211"/>
     <mergeCell ref="C216:C217"/>
@@ -22562,200 +22756,6 @@
     <mergeCell ref="E215:H215"/>
     <mergeCell ref="C208:C209"/>
     <mergeCell ref="E209:H209"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="E345:H345"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E131:H131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E133:H133"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E135:H135"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="E143:H143"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="E187:H187"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="E147:H147"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="E145:H145"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="E185:H185"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E169:H169"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="E167:H167"/>
-    <mergeCell ref="E171:H171"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E117:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E119:H119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="E335:H335"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="E307:H307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="E309:H309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="E311:H311"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="E313:H313"/>
-    <mergeCell ref="C329:E330"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="E333:H333"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="E303:H303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="E305:H305"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="E301:H301"/>
-    <mergeCell ref="C295:E296"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="E299:H299"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="E289:H289"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="C269:E270"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="E279:H279"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="G269:H270"/>
-    <mergeCell ref="E275:H275"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="E273:H273"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="E277:H277"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C241:E242"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="E229:H229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="E231:H231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="E233:H233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="C257:E258"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="G241:H242"/>
-    <mergeCell ref="F257:F258"/>
-    <mergeCell ref="G257:H258"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="E219:H219"/>
-    <mergeCell ref="C225:E226"/>
-    <mergeCell ref="C205:E206"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="C181:E182"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="E199:H199"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="E175:H175"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="E337:H337"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="C52:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22767,8 +22767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FF48C6-426D-44C5-A851-B799D6C65A30}">
   <dimension ref="A20:P377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="G245" sqref="G245"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23032,13 +23032,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="39" t="s">
@@ -23064,18 +23064,18 @@
       <c r="E5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
     </row>
     <row r="6" spans="2:15" ht="34.5" customHeight="1">
       <c r="B6" s="38">
@@ -23090,18 +23090,18 @@
       <c r="E6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="2:15" ht="34.5" customHeight="1">
       <c r="B7" s="38">
@@ -23116,21 +23116,21 @@
       <c r="E7" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B8" s="120">
+      <c r="B8" s="122">
         <v>4</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -23142,21 +23142,21 @@
       <c r="E8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
     </row>
     <row r="9" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B9" s="120"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="40" t="s">
         <v>155</v>
       </c>
@@ -23166,19 +23166,19 @@
       <c r="E9" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
     </row>
     <row r="10" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B10" s="120">
+      <c r="B10" s="122">
         <v>5</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -23190,21 +23190,21 @@
       <c r="E10" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
     </row>
     <row r="11" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="40" t="s">
         <v>154</v>
       </c>
@@ -23214,16 +23214,16 @@
       <c r="E11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="38">
@@ -23238,21 +23238,21 @@
       <c r="E12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
     </row>
     <row r="13" spans="2:15" ht="37.5" customHeight="1">
-      <c r="B13" s="120">
+      <c r="B13" s="122">
         <v>7</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -23264,21 +23264,21 @@
       <c r="E13" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="43" t="s">
         <v>154</v>
       </c>
@@ -23288,16 +23288,16 @@
       <c r="E14" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1">
       <c r="B15" s="38">
@@ -23312,21 +23312,26 @@
       <c r="E15" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:O9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:O11"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="F12:O12"/>
@@ -23334,11 +23339,6 @@
     <mergeCell ref="F13:O14"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:O9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23386,16 +23386,16 @@
       <c r="F4" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="38">
@@ -23410,16 +23410,16 @@
       <c r="F5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
     </row>
     <row r="6" spans="3:15" ht="48" customHeight="1">
       <c r="C6" s="38">
@@ -23434,16 +23434,16 @@
       <c r="F6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
     </row>
     <row r="7" spans="3:15" ht="57" customHeight="1">
       <c r="C7" s="38">
@@ -23554,16 +23554,16 @@
       <c r="F11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
       <c r="O11" t="s">
         <v>11</v>
       </c>
@@ -23581,16 +23581,16 @@
       <c r="F12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
       <c r="O12" t="s">
         <v>11</v>
       </c>
@@ -23667,7 +23667,7 @@
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="120">
+      <c r="C4" s="122">
         <v>1</v>
       </c>
       <c r="D4" s="131" t="s">
@@ -23676,24 +23676,24 @@
       <c r="E4" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="120"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="130"/>
       <c r="E5" s="130"/>
-      <c r="F5" s="120"/>
+      <c r="F5" s="122"/>
       <c r="G5" s="128" t="s">
         <v>177</v>
       </c>
@@ -23717,15 +23717,15 @@
       <c r="F6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="38">
@@ -23740,15 +23740,15 @@
       <c r="F7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="38">
@@ -23763,15 +23763,15 @@
       <c r="F8" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
     </row>
     <row r="9" spans="3:13" ht="33" customHeight="1">
       <c r="C9" s="38">
@@ -23809,15 +23809,15 @@
       <c r="F10" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
     </row>
     <row r="11" spans="3:13" ht="39" customHeight="1">
       <c r="C11" s="38">
@@ -23832,18 +23832,23 @@
       <c r="F11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="F4:F5"/>
@@ -23851,11 +23856,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/오류분석/2022_07_06_Labeling_오류분석.xlsx
+++ b/오류분석/2022_07_06_Labeling_오류분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D761DA-7194-4BCD-8C77-9709B36CFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F4EF15-E1BA-4788-9396-420874C6F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25095" yWindow="2070" windowWidth="22530" windowHeight="13785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1530" windowWidth="22530" windowHeight="13785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -10938,68 +10938,17 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -11013,14 +10962,65 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11037,17 +11037,26 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11059,19 +11068,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13750,14 +13750,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>627878</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:colOff>313553</xdr:colOff>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>172119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13781,7 +13781,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153150" y="46853474"/>
+          <a:off x="5838825" y="47063024"/>
           <a:ext cx="2018528" cy="3229645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13793,16 +13793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352041</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599691</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19482</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>267132</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13825,7 +13825,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524241" y="46882050"/>
+          <a:off x="6086091" y="46910625"/>
           <a:ext cx="1724841" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13838,15 +13838,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>629597</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>267647</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>29256</xdr:rowOff>
+      <xdr:rowOff>143556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13869,7 +13869,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6801797" y="46710599"/>
+          <a:off x="6439847" y="46824899"/>
           <a:ext cx="1885004" cy="3648757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13881,16 +13881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>398550</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274725</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>524300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400475</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>153125</xdr:rowOff>
+      <xdr:rowOff>191225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13913,7 +13913,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7256550" y="46548674"/>
+          <a:off x="6446925" y="46586774"/>
           <a:ext cx="2183150" cy="3725001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13925,16 +13925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>36557</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531857</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457674</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>200682</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>267174</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>181632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13957,7 +13957,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7580357" y="46682025"/>
+          <a:off x="6704057" y="47082075"/>
           <a:ext cx="2478517" cy="3429657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13969,16 +13969,192 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>190961</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="그림 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB32FB67-544F-D521-1367-C59E1C22AC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572251" y="46596300"/>
+          <a:ext cx="1666874" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419917</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>86222</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>200924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888EEC1A-0607-0B1F-2319-4D6C39691F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277917" y="46367700"/>
+          <a:ext cx="1723705" cy="3115574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437120</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248073</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>77060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="그림 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD9DA07-0814-E759-5E22-95F019AAA858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6609320" y="46186725"/>
+          <a:ext cx="1868353" cy="3801335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642997</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143254</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>181600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5081DA5A-5025-FCB1-34B0-8AA04F851099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6815197" y="46405800"/>
+          <a:ext cx="2243457" cy="3686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>171911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13994,182 +14170,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8105775" y="46586775"/>
-          <a:ext cx="1676400" cy="3305636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="그림 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB32FB67-544F-D521-1367-C59E1C22AC27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8477251" y="46558200"/>
-          <a:ext cx="1666874" cy="3857625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>496117</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>162422</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>153299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="그림 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888EEC1A-0607-0B1F-2319-4D6C39691F72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8725717" y="46739175"/>
-          <a:ext cx="1723705" cy="3115574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>132320</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>629073</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>153260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="그림 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD9DA07-0814-E759-5E22-95F019AAA858}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9047720" y="46472475"/>
-          <a:ext cx="1868353" cy="3801335"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>509647</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9904</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>153025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="그림 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5081DA5A-5025-FCB1-34B0-8AA04F851099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
@@ -14177,8 +14177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9425047" y="46586775"/>
-          <a:ext cx="2243457" cy="3686800"/>
+          <a:off x="7667625" y="47196375"/>
+          <a:ext cx="1676400" cy="3305636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14321,16 +14321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>241563</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317763</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>505224</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581424</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14353,7 +14353,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9842763" y="46339125"/>
+          <a:off x="7861563" y="46424850"/>
           <a:ext cx="2321061" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14365,16 +14365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>181781</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372281</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>10222</xdr:rowOff>
+      <xdr:rowOff>67372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14397,7 +14397,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9744075" y="46596300"/>
+          <a:off x="7191375" y="46653450"/>
           <a:ext cx="2782106" cy="3744022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14409,16 +14409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>640890</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12240</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>181432</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14441,8 +14441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8870490" y="48167925"/>
-          <a:ext cx="2045160" cy="2762707"/>
+          <a:off x="7556040" y="47520225"/>
+          <a:ext cx="2045160" cy="2486025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14497,16 +14497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>138100</xdr:rowOff>
+      <xdr:rowOff>176200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>10188</xdr:rowOff>
+      <xdr:rowOff>48288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14529,7 +14529,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10448925" y="47115400"/>
+          <a:off x="8239125" y="47153500"/>
           <a:ext cx="1743075" cy="2805788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14541,16 +14541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>642346</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508996</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590917</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457567</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>143570</xdr:rowOff>
+      <xdr:rowOff>134045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14573,7 +14573,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10929346" y="46672500"/>
+          <a:off x="10110196" y="46662975"/>
           <a:ext cx="2005971" cy="3801170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15511,16 +15511,16 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="21" customHeight="1" thickBot="1">
-      <c r="C8" s="102"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="3:8" ht="63.75" customHeight="1">
       <c r="C9" s="77">
@@ -15547,12 +15547,12 @@
       <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="103"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
     </row>
     <row r="11" spans="3:8" ht="63.75" customHeight="1">
       <c r="C11" s="77">
@@ -15579,12 +15579,12 @@
       <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="3:8" ht="69.75" customHeight="1">
       <c r="C13" s="77">
@@ -15611,12 +15611,12 @@
       <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="3:8" ht="53.25" customHeight="1">
       <c r="C15" s="77">
@@ -15643,12 +15643,12 @@
       <c r="D16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="3:8" ht="68.25" customHeight="1">
       <c r="C17" s="77">
@@ -15675,12 +15675,12 @@
       <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="3:8" ht="44.25" customHeight="1">
       <c r="C19" s="77">
@@ -15707,12 +15707,12 @@
       <c r="D20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="3:8" ht="90" customHeight="1">
       <c r="C21" s="77">
@@ -15739,12 +15739,12 @@
       <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
     </row>
     <row r="23" spans="3:8" ht="57.75" customHeight="1">
       <c r="C23" s="77">
@@ -15771,12 +15771,12 @@
       <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="3:8" ht="101.25" customHeight="1">
       <c r="C25" s="77">
@@ -15803,12 +15803,12 @@
       <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="86"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1">
       <c r="C27" s="77">
@@ -15835,12 +15835,12 @@
       <c r="D28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
     </row>
     <row r="29" spans="3:8" ht="48.75" customHeight="1">
       <c r="C29" s="77">
@@ -15867,12 +15867,12 @@
       <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
     </row>
     <row r="31" spans="3:8" ht="80.25" customHeight="1">
       <c r="C31" s="77">
@@ -15899,12 +15899,12 @@
       <c r="D32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
     </row>
     <row r="33" spans="3:8" ht="89.25" customHeight="1">
       <c r="C33" s="77">
@@ -15931,12 +15931,12 @@
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="86"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="3:8" ht="47.25" customHeight="1">
       <c r="C35" s="77">
@@ -15963,12 +15963,12 @@
       <c r="D36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="86"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" spans="3:8" ht="101.25" customHeight="1">
       <c r="C37" s="77">
@@ -15995,12 +15995,12 @@
       <c r="D38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="96"/>
     </row>
     <row r="39" spans="3:8" ht="60.75" customHeight="1">
       <c r="C39" s="77">
@@ -16027,12 +16027,12 @@
       <c r="D40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="86"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="3:8" ht="35.1" customHeight="1">
       <c r="C41" s="77">
@@ -16059,12 +16059,12 @@
       <c r="D42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="92"/>
     </row>
     <row r="43" spans="3:8" ht="35.1" customHeight="1">
       <c r="C43" s="77">
@@ -16091,12 +16091,12 @@
       <c r="D44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="98" t="s">
+      <c r="E44" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="101"/>
     </row>
     <row r="45" spans="3:8" ht="16.5" customHeight="1">
       <c r="C45" s="34"/>
@@ -16203,12 +16203,12 @@
       <c r="D54" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="103"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
     </row>
     <row r="55" spans="3:8">
       <c r="D55" s="3"/>
@@ -16313,12 +16313,12 @@
       <c r="D64" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="89" t="s">
+      <c r="E64" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="86"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="92"/>
     </row>
     <row r="65" spans="3:8">
       <c r="D65" s="3"/>
@@ -16423,12 +16423,12 @@
       <c r="D74" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="90" t="s">
+      <c r="E74" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="86"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="92"/>
     </row>
     <row r="75" spans="3:8" ht="33" customHeight="1">
       <c r="C75" s="77">
@@ -16455,12 +16455,12 @@
       <c r="D76" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="92"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="96"/>
     </row>
     <row r="77" spans="3:8" ht="64.5" customHeight="1">
       <c r="C77" s="77">
@@ -16487,12 +16487,12 @@
       <c r="D78" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="91" t="s">
+      <c r="E78" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="92"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="96"/>
     </row>
     <row r="79" spans="3:8" ht="42" customHeight="1">
       <c r="D79" s="3"/>
@@ -16590,12 +16590,12 @@
       <c r="D87" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="91" t="s">
+      <c r="E87" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="86"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="92"/>
     </row>
     <row r="88" spans="3:8" ht="45" customHeight="1">
       <c r="C88" s="77">
@@ -16622,12 +16622,12 @@
       <c r="D89" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="85" t="s">
+      <c r="E89" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="86"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="92"/>
     </row>
     <row r="90" spans="3:8" ht="45" customHeight="1">
       <c r="C90" s="77">
@@ -16654,12 +16654,12 @@
       <c r="D91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="91" t="s">
+      <c r="E91" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="92"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="96"/>
     </row>
     <row r="92" spans="3:8">
       <c r="D92" s="3"/>
@@ -16796,12 +16796,12 @@
       <c r="D103" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="104" t="s">
+      <c r="E103" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="106"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="89"/>
     </row>
     <row r="104" spans="3:8" ht="43.5" customHeight="1">
       <c r="C104" s="77">
@@ -16828,12 +16828,12 @@
       <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="107" t="s">
+      <c r="E105" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
-      <c r="H105" s="109"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="84"/>
     </row>
     <row r="106" spans="3:8">
       <c r="D106" s="3"/>
@@ -17198,7 +17198,7 @@
       <c r="H137" s="81"/>
     </row>
     <row r="138" spans="3:14" ht="94.5" customHeight="1">
-      <c r="C138" s="82">
+      <c r="C138" s="108">
         <v>2</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -17219,7 +17219,7 @@
       <c r="I138" s="31"/>
     </row>
     <row r="139" spans="3:14" ht="121.5" customHeight="1" thickBot="1">
-      <c r="C139" s="83"/>
+      <c r="C139" s="109"/>
       <c r="D139" s="13" t="s">
         <v>7</v>
       </c>
@@ -17315,7 +17315,7 @@
       </c>
     </row>
     <row r="148" spans="3:8" ht="33" customHeight="1">
-      <c r="C148" s="82">
+      <c r="C148" s="108">
         <v>1</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -17335,7 +17335,7 @@
       </c>
     </row>
     <row r="149" spans="3:8" ht="33" customHeight="1" thickBot="1">
-      <c r="C149" s="83"/>
+      <c r="C149" s="109"/>
       <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
@@ -17347,7 +17347,7 @@
       <c r="H149" s="81"/>
     </row>
     <row r="150" spans="3:8" ht="66" customHeight="1">
-      <c r="C150" s="82">
+      <c r="C150" s="108">
         <v>2</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -17367,7 +17367,7 @@
       </c>
     </row>
     <row r="151" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C151" s="83"/>
+      <c r="C151" s="109"/>
       <c r="D151" s="13" t="s">
         <v>7</v>
       </c>
@@ -17813,52 +17813,66 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="C189:E190"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="E193:H193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="E195:H195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E197:H197"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C133:E134"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C121:E122"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C111:E112"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C97:E98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C179:E180"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="E183:H183"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="C169:E170"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="C157:E158"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="C145:E146"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="C83:E84"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E12:H12"/>
@@ -17883,66 +17897,52 @@
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="C83:E84"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C157:E158"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E151:H151"/>
-    <mergeCell ref="C145:E146"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="C179:E180"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="E183:H183"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="E173:H173"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="C169:E170"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C97:E98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C121:E122"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C111:E112"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="C133:E134"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C189:E190"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E193:H193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="E195:H195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E197:H197"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18067,12 +18067,12 @@
       <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
       <c r="J7" s="68" t="s">
         <v>155</v>
       </c>
@@ -18115,12 +18115,12 @@
       <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="J9" s="68" t="s">
         <v>450</v>
       </c>
@@ -18163,12 +18163,12 @@
       <c r="D11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="96"/>
       <c r="J11" s="68" t="s">
         <v>453</v>
       </c>
@@ -18211,12 +18211,12 @@
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
       <c r="J13" s="68" t="s">
         <v>455</v>
       </c>
@@ -18259,12 +18259,12 @@
       <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="J15" s="68" t="s">
         <v>458</v>
       </c>
@@ -18306,12 +18306,12 @@
       <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="96"/>
       <c r="J17" s="68" t="s">
         <v>459</v>
       </c>
@@ -18354,12 +18354,12 @@
       <c r="D19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
       <c r="J19" s="68" t="s">
         <v>461</v>
       </c>
@@ -18402,12 +18402,12 @@
       <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="3:12" ht="35.25" customHeight="1">
       <c r="C22" s="77">
@@ -18441,12 +18441,12 @@
       <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
       <c r="J23" s="68" t="s">
         <v>11</v>
       </c>
@@ -18487,12 +18487,12 @@
       <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
     </row>
     <row r="26" spans="3:12" ht="35.25" customHeight="1">
       <c r="C26" s="77">
@@ -18519,12 +18519,12 @@
       <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="106" t="s">
         <v>444</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
     </row>
     <row r="28" spans="3:12" ht="35.25" customHeight="1">
       <c r="C28" s="77"/>
@@ -18539,10 +18539,10 @@
       <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
     </row>
     <row r="30" spans="3:12" ht="90" customHeight="1">
       <c r="C30" s="77"/>
@@ -18557,10 +18557,10 @@
       <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
     </row>
     <row r="32" spans="3:12" ht="16.5" customHeight="1">
       <c r="C32" s="34"/>
@@ -18653,10 +18653,10 @@
     <row r="41" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C41" s="78"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
     </row>
     <row r="42" spans="3:8">
       <c r="D42" s="3"/>
@@ -18761,12 +18761,12 @@
       <c r="D51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="91" t="s">
+      <c r="E51" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="92"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="96"/>
     </row>
     <row r="52" spans="3:8" ht="79.5" customHeight="1">
       <c r="C52" s="77">
@@ -18793,12 +18793,12 @@
       <c r="D53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="91" t="s">
+      <c r="E53" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="92"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="96"/>
     </row>
     <row r="54" spans="3:8" ht="45.75" customHeight="1">
       <c r="C54" s="77">
@@ -18825,12 +18825,12 @@
       <c r="D55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="90" t="s">
         <v>303</v>
       </c>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="92"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="96"/>
     </row>
     <row r="56" spans="3:8" ht="56.25" customHeight="1">
       <c r="C56" s="77">
@@ -18857,12 +18857,12 @@
       <c r="D57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="91" t="s">
+      <c r="E57" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="92"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="96"/>
     </row>
     <row r="58" spans="3:8" ht="45.75" customHeight="1">
       <c r="C58" s="77"/>
@@ -18877,10 +18877,10 @@
       <c r="D59" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="92"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="96"/>
     </row>
     <row r="60" spans="3:8" ht="58.5" customHeight="1">
       <c r="C60" s="77"/>
@@ -18895,10 +18895,10 @@
       <c r="D61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="92"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="96"/>
     </row>
     <row r="62" spans="3:8" ht="42" customHeight="1">
       <c r="D62" s="3"/>
@@ -19003,12 +19003,12 @@
       <c r="D71" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="91" t="s">
+      <c r="E71" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="86"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
     </row>
     <row r="72" spans="3:8" ht="82.5" customHeight="1">
       <c r="C72" s="77">
@@ -19035,12 +19035,12 @@
       <c r="D73" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="86"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="92"/>
     </row>
     <row r="74" spans="3:8" ht="30" customHeight="1">
       <c r="C74" s="77">
@@ -19067,12 +19067,12 @@
       <c r="D75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="91" t="s">
+      <c r="E75" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="86"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="92"/>
     </row>
     <row r="76" spans="3:8" ht="30" customHeight="1">
       <c r="C76" s="77"/>
@@ -19087,10 +19087,10 @@
       <c r="D77" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="91"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="86"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
     </row>
     <row r="78" spans="3:8" ht="30" customHeight="1">
       <c r="C78" s="77"/>
@@ -19105,10 +19105,10 @@
       <c r="D79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="91"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="86"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="92"/>
     </row>
     <row r="80" spans="3:8" ht="96" customHeight="1">
       <c r="C80" s="77"/>
@@ -19123,10 +19123,10 @@
       <c r="D81" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="91"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="86"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="92"/>
     </row>
     <row r="82" spans="3:8">
       <c r="D82" s="3"/>
@@ -19207,7 +19207,7 @@
       </c>
     </row>
     <row r="90" spans="3:8" ht="48.75" customHeight="1">
-      <c r="C90" s="116">
+      <c r="C90" s="115">
         <v>1</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -19227,16 +19227,16 @@
       </c>
     </row>
     <row r="91" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
-      <c r="C91" s="117"/>
+      <c r="C91" s="116"/>
       <c r="D91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="85" t="s">
+      <c r="E91" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="86"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="92"/>
     </row>
     <row r="92" spans="3:8" ht="48.75" customHeight="1">
       <c r="C92" s="77">
@@ -19263,12 +19263,12 @@
       <c r="D93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="91" t="s">
+      <c r="E93" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="86"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="92"/>
     </row>
     <row r="94" spans="3:8" ht="48.75" customHeight="1">
       <c r="C94" s="77">
@@ -19295,12 +19295,12 @@
       <c r="D95" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="91" t="s">
+      <c r="E95" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="86"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
     </row>
     <row r="96" spans="3:8" ht="48.75" customHeight="1">
       <c r="C96" s="77">
@@ -19327,12 +19327,12 @@
       <c r="D97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="91" t="s">
+      <c r="E97" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="86"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="92"/>
     </row>
     <row r="98" spans="3:8" ht="48.75" customHeight="1">
       <c r="C98" s="77">
@@ -19359,12 +19359,12 @@
       <c r="D99" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="91" t="s">
+      <c r="E99" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="86"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="92"/>
     </row>
     <row r="100" spans="3:8" ht="48.75" customHeight="1">
       <c r="C100" s="77">
@@ -19391,12 +19391,12 @@
       <c r="D101" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="91" t="s">
+      <c r="E101" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="86"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="92"/>
     </row>
     <row r="102" spans="3:8" ht="48.75" customHeight="1">
       <c r="C102" s="77">
@@ -19423,12 +19423,12 @@
       <c r="D103" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="91" t="s">
+      <c r="E103" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="86"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="92"/>
     </row>
     <row r="104" spans="3:8" ht="48.75" customHeight="1">
       <c r="C104" s="77">
@@ -19455,12 +19455,12 @@
       <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="91" t="s">
+      <c r="E105" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="86"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="92"/>
     </row>
     <row r="106" spans="3:8" ht="48.75" customHeight="1">
       <c r="C106" s="77">
@@ -19487,12 +19487,12 @@
       <c r="D107" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="91" t="s">
+      <c r="E107" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="86"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="92"/>
     </row>
     <row r="108" spans="3:8" ht="48.75" customHeight="1">
       <c r="C108" s="77">
@@ -19519,12 +19519,12 @@
       <c r="D109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="91" t="s">
+      <c r="E109" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="86"/>
+      <c r="F109" s="91"/>
+      <c r="G109" s="91"/>
+      <c r="H109" s="92"/>
     </row>
     <row r="110" spans="3:8" ht="48.75" customHeight="1">
       <c r="C110" s="77">
@@ -19551,12 +19551,12 @@
       <c r="D111" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="91" t="s">
+      <c r="E111" s="90" t="s">
         <v>333</v>
       </c>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="86"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="92"/>
     </row>
     <row r="112" spans="3:8" ht="48.75" customHeight="1">
       <c r="C112" s="77">
@@ -19583,12 +19583,12 @@
       <c r="D113" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="91" t="s">
+      <c r="E113" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="86"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="92"/>
     </row>
     <row r="114" spans="3:8" ht="16.5" customHeight="1">
       <c r="C114" s="77">
@@ -19615,12 +19615,12 @@
       <c r="D115" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="91" t="s">
+      <c r="E115" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="86"/>
+      <c r="F115" s="91"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="92"/>
     </row>
     <row r="116" spans="3:8" ht="72" customHeight="1">
       <c r="C116" s="77">
@@ -19647,10 +19647,10 @@
       <c r="D117" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="91"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="86"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="92"/>
     </row>
     <row r="118" spans="3:8" ht="33">
       <c r="C118" s="77">
@@ -19677,12 +19677,12 @@
       <c r="D119" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="91" t="s">
+      <c r="E119" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="F119" s="85"/>
-      <c r="G119" s="85"/>
-      <c r="H119" s="86"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="92"/>
     </row>
     <row r="120" spans="3:8" ht="16.5" customHeight="1">
       <c r="C120" s="77">
@@ -19709,12 +19709,12 @@
       <c r="D121" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="91" t="s">
+      <c r="E121" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="86"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="92"/>
     </row>
     <row r="122" spans="3:8" ht="49.5" customHeight="1">
       <c r="C122" s="77">
@@ -19741,12 +19741,12 @@
       <c r="D123" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="91" t="s">
+      <c r="E123" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="86"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="92"/>
     </row>
     <row r="124" spans="3:8" ht="69" customHeight="1">
       <c r="C124" s="77">
@@ -19773,12 +19773,12 @@
       <c r="D125" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="91" t="s">
+      <c r="E125" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="86"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="92"/>
     </row>
     <row r="126" spans="3:8" ht="33">
       <c r="C126" s="77">
@@ -19805,12 +19805,12 @@
       <c r="D127" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="91" t="s">
+      <c r="E127" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="86"/>
+      <c r="F127" s="91"/>
+      <c r="G127" s="91"/>
+      <c r="H127" s="92"/>
     </row>
     <row r="128" spans="3:8" ht="82.5">
       <c r="C128" s="77">
@@ -19837,12 +19837,12 @@
       <c r="D129" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E129" s="91" t="s">
+      <c r="E129" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="F129" s="85"/>
-      <c r="G129" s="85"/>
-      <c r="H129" s="86"/>
+      <c r="F129" s="91"/>
+      <c r="G129" s="91"/>
+      <c r="H129" s="92"/>
     </row>
     <row r="130" spans="3:9" ht="78.75" customHeight="1">
       <c r="C130" s="77">
@@ -19869,12 +19869,12 @@
       <c r="D131" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="91" t="s">
+      <c r="E131" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="F131" s="85"/>
-      <c r="G131" s="85"/>
-      <c r="H131" s="86"/>
+      <c r="F131" s="91"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="92"/>
     </row>
     <row r="132" spans="3:9" ht="40.5" customHeight="1">
       <c r="C132" s="77">
@@ -19901,12 +19901,12 @@
       <c r="D133" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="91" t="s">
+      <c r="E133" s="90" t="s">
         <v>383</v>
       </c>
-      <c r="F133" s="85"/>
-      <c r="G133" s="85"/>
-      <c r="H133" s="86"/>
+      <c r="F133" s="91"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="92"/>
     </row>
     <row r="134" spans="3:9" ht="40.5" customHeight="1">
       <c r="C134" s="77">
@@ -19933,12 +19933,12 @@
       <c r="D135" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="91" t="s">
+      <c r="E135" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="F135" s="85"/>
-      <c r="G135" s="85"/>
-      <c r="H135" s="86"/>
+      <c r="F135" s="91"/>
+      <c r="G135" s="91"/>
+      <c r="H135" s="92"/>
     </row>
     <row r="136" spans="3:9" ht="102" customHeight="1">
       <c r="C136" s="77">
@@ -19965,12 +19965,12 @@
       <c r="D137" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="91" t="s">
+      <c r="E137" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="F137" s="85"/>
-      <c r="G137" s="85"/>
-      <c r="H137" s="86"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="91"/>
+      <c r="H137" s="92"/>
     </row>
     <row r="138" spans="3:9" ht="107.25" customHeight="1">
       <c r="C138" s="77">
@@ -19997,12 +19997,12 @@
       <c r="D139" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="91" t="s">
+      <c r="E139" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="F139" s="85"/>
-      <c r="G139" s="85"/>
-      <c r="H139" s="86"/>
+      <c r="F139" s="91"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="92"/>
     </row>
     <row r="140" spans="3:9" ht="40.5" customHeight="1">
       <c r="C140" s="77">
@@ -20029,12 +20029,12 @@
       <c r="D141" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="91" t="s">
+      <c r="E141" s="90" t="s">
         <v>393</v>
       </c>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="86"/>
+      <c r="F141" s="91"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="92"/>
     </row>
     <row r="142" spans="3:9" ht="40.5" customHeight="1">
       <c r="C142" s="77">
@@ -20064,12 +20064,12 @@
       <c r="D143" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="91" t="s">
+      <c r="E143" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="86"/>
+      <c r="F143" s="91"/>
+      <c r="G143" s="91"/>
+      <c r="H143" s="92"/>
     </row>
     <row r="144" spans="3:9" ht="66">
       <c r="C144" s="77">
@@ -20096,12 +20096,12 @@
       <c r="D145" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="91" t="s">
+      <c r="E145" s="90" t="s">
         <v>405</v>
       </c>
-      <c r="F145" s="85"/>
-      <c r="G145" s="85"/>
-      <c r="H145" s="86"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="92"/>
     </row>
     <row r="146" spans="3:8" ht="40.5" customHeight="1">
       <c r="C146" s="77">
@@ -20128,12 +20128,12 @@
       <c r="D147" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="91" t="s">
+      <c r="E147" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="86"/>
+      <c r="F147" s="91"/>
+      <c r="G147" s="91"/>
+      <c r="H147" s="92"/>
     </row>
     <row r="148" spans="3:8" ht="49.5">
       <c r="C148" s="77">
@@ -20160,12 +20160,12 @@
       <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="91" t="s">
+      <c r="E149" s="90" t="s">
         <v>424</v>
       </c>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="86"/>
+      <c r="F149" s="91"/>
+      <c r="G149" s="91"/>
+      <c r="H149" s="92"/>
     </row>
     <row r="150" spans="3:8" ht="49.5">
       <c r="C150" s="77">
@@ -20192,12 +20192,12 @@
       <c r="D151" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="91" t="s">
+      <c r="E151" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="F151" s="85"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="86"/>
+      <c r="F151" s="91"/>
+      <c r="G151" s="91"/>
+      <c r="H151" s="92"/>
     </row>
     <row r="152" spans="3:8" ht="40.5" customHeight="1">
       <c r="C152" s="77">
@@ -20224,12 +20224,12 @@
       <c r="D153" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="91" t="s">
+      <c r="E153" s="90" t="s">
         <v>428</v>
       </c>
-      <c r="F153" s="85"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="86"/>
+      <c r="F153" s="91"/>
+      <c r="G153" s="91"/>
+      <c r="H153" s="92"/>
     </row>
     <row r="154" spans="3:8" ht="69.75" customHeight="1">
       <c r="C154" s="77">
@@ -20256,12 +20256,12 @@
       <c r="D155" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="91" t="s">
+      <c r="E155" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="86"/>
+      <c r="F155" s="91"/>
+      <c r="G155" s="91"/>
+      <c r="H155" s="92"/>
     </row>
     <row r="156" spans="3:8" ht="40.5" customHeight="1">
       <c r="C156" s="77">
@@ -20288,12 +20288,12 @@
       <c r="D157" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="91" t="s">
+      <c r="E157" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="86"/>
+      <c r="F157" s="91"/>
+      <c r="G157" s="91"/>
+      <c r="H157" s="92"/>
     </row>
     <row r="158" spans="3:8" ht="40.5" customHeight="1">
       <c r="C158" s="77">
@@ -20320,12 +20320,12 @@
       <c r="D159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="91" t="s">
+      <c r="E159" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="86"/>
+      <c r="F159" s="91"/>
+      <c r="G159" s="91"/>
+      <c r="H159" s="92"/>
     </row>
     <row r="160" spans="3:8" ht="40.5" customHeight="1">
       <c r="C160" s="77">
@@ -20352,12 +20352,12 @@
       <c r="D161" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="91" t="s">
+      <c r="E161" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="F161" s="85"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="86"/>
+      <c r="F161" s="91"/>
+      <c r="G161" s="91"/>
+      <c r="H161" s="92"/>
     </row>
     <row r="162" spans="3:8" ht="40.5" customHeight="1">
       <c r="C162" s="77">
@@ -20384,12 +20384,12 @@
       <c r="D163" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="91" t="s">
+      <c r="E163" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="F163" s="85"/>
-      <c r="G163" s="85"/>
-      <c r="H163" s="86"/>
+      <c r="F163" s="91"/>
+      <c r="G163" s="91"/>
+      <c r="H163" s="92"/>
     </row>
     <row r="164" spans="3:8" ht="49.5">
       <c r="C164" s="77">
@@ -20416,12 +20416,12 @@
       <c r="D165" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="91" t="s">
+      <c r="E165" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="F165" s="85"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="86"/>
+      <c r="F165" s="91"/>
+      <c r="G165" s="91"/>
+      <c r="H165" s="92"/>
     </row>
     <row r="166" spans="3:8" ht="40.5" customHeight="1">
       <c r="C166" s="77">
@@ -20448,12 +20448,12 @@
       <c r="D167" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="91" t="s">
+      <c r="E167" s="90" t="s">
         <v>471</v>
       </c>
-      <c r="F167" s="85"/>
-      <c r="G167" s="85"/>
-      <c r="H167" s="86"/>
+      <c r="F167" s="91"/>
+      <c r="G167" s="91"/>
+      <c r="H167" s="92"/>
     </row>
     <row r="168" spans="3:8" ht="40.5" customHeight="1">
       <c r="C168" s="77">
@@ -20480,12 +20480,12 @@
       <c r="D169" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="91" t="s">
+      <c r="E169" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="F169" s="85"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="86"/>
+      <c r="F169" s="91"/>
+      <c r="G169" s="91"/>
+      <c r="H169" s="92"/>
     </row>
     <row r="170" spans="3:8" ht="40.5" customHeight="1">
       <c r="C170" s="77"/>
@@ -20500,10 +20500,10 @@
       <c r="D171" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="91"/>
-      <c r="F171" s="85"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="86"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="91"/>
+      <c r="G171" s="91"/>
+      <c r="H171" s="92"/>
     </row>
     <row r="172" spans="3:8" ht="40.5" customHeight="1">
       <c r="C172" s="77"/>
@@ -20518,10 +20518,10 @@
       <c r="D173" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="91"/>
-      <c r="F173" s="85"/>
-      <c r="G173" s="85"/>
-      <c r="H173" s="86"/>
+      <c r="E173" s="90"/>
+      <c r="F173" s="91"/>
+      <c r="G173" s="91"/>
+      <c r="H173" s="92"/>
     </row>
     <row r="174" spans="3:8">
       <c r="C174" s="77"/>
@@ -20536,10 +20536,10 @@
       <c r="D175" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="91"/>
-      <c r="F175" s="85"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="86"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="92"/>
     </row>
     <row r="176" spans="3:8">
       <c r="D176" s="3"/>
@@ -21161,7 +21161,7 @@
       <c r="N227" s="3"/>
     </row>
     <row r="228" spans="3:14" ht="66">
-      <c r="C228" s="82">
+      <c r="C228" s="108">
         <v>1</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -21181,7 +21181,7 @@
       </c>
     </row>
     <row r="229" spans="3:14" ht="119.25" customHeight="1" thickBot="1">
-      <c r="C229" s="83"/>
+      <c r="C229" s="109"/>
       <c r="D229" s="13" t="s">
         <v>7</v>
       </c>
@@ -21193,7 +21193,7 @@
       <c r="H229" s="81"/>
     </row>
     <row r="230" spans="3:14" ht="119.25" customHeight="1">
-      <c r="C230" s="82">
+      <c r="C230" s="108">
         <v>2</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -21213,7 +21213,7 @@
       </c>
     </row>
     <row r="231" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C231" s="83"/>
+      <c r="C231" s="109"/>
       <c r="D231" s="13" t="s">
         <v>7</v>
       </c>
@@ -21223,7 +21223,7 @@
       <c r="H231" s="81"/>
     </row>
     <row r="232" spans="3:14" ht="16.5" customHeight="1">
-      <c r="C232" s="82">
+      <c r="C232" s="108">
         <v>3</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -21243,7 +21243,7 @@
       </c>
     </row>
     <row r="233" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C233" s="83"/>
+      <c r="C233" s="109"/>
       <c r="D233" s="13" t="s">
         <v>7</v>
       </c>
@@ -21253,7 +21253,7 @@
       <c r="H233" s="81"/>
     </row>
     <row r="234" spans="3:14" ht="16.5" customHeight="1">
-      <c r="C234" s="82">
+      <c r="C234" s="108">
         <v>4</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -21273,7 +21273,7 @@
       </c>
     </row>
     <row r="235" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C235" s="83"/>
+      <c r="C235" s="109"/>
       <c r="D235" s="13" t="s">
         <v>7</v>
       </c>
@@ -21361,7 +21361,7 @@
       </c>
     </row>
     <row r="244" spans="3:8" ht="66" customHeight="1">
-      <c r="C244" s="82">
+      <c r="C244" s="108">
         <v>1</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -21381,7 +21381,7 @@
       </c>
     </row>
     <row r="245" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C245" s="83"/>
+      <c r="C245" s="109"/>
       <c r="D245" s="13" t="s">
         <v>7</v>
       </c>
@@ -21393,7 +21393,7 @@
       <c r="H245" s="81"/>
     </row>
     <row r="246" spans="3:8" ht="65.25" customHeight="1">
-      <c r="C246" s="82">
+      <c r="C246" s="108">
         <v>2</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -21413,7 +21413,7 @@
       </c>
     </row>
     <row r="247" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C247" s="83"/>
+      <c r="C247" s="109"/>
       <c r="D247" s="13" t="s">
         <v>7</v>
       </c>
@@ -21425,7 +21425,7 @@
       <c r="H247" s="81"/>
     </row>
     <row r="248" spans="3:8" ht="40.5" customHeight="1">
-      <c r="C248" s="82">
+      <c r="C248" s="108">
         <v>3</v>
       </c>
       <c r="D248" s="6" t="s">
@@ -21445,7 +21445,7 @@
       </c>
     </row>
     <row r="249" spans="3:8" ht="96.75" customHeight="1" thickBot="1">
-      <c r="C249" s="83"/>
+      <c r="C249" s="109"/>
       <c r="D249" s="13" t="s">
         <v>7</v>
       </c>
@@ -21457,7 +21457,7 @@
       <c r="H249" s="81"/>
     </row>
     <row r="250" spans="3:8" ht="49.5">
-      <c r="C250" s="82">
+      <c r="C250" s="108">
         <v>4</v>
       </c>
       <c r="D250" s="6" t="s">
@@ -21477,7 +21477,7 @@
       </c>
     </row>
     <row r="251" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C251" s="83"/>
+      <c r="C251" s="109"/>
       <c r="D251" s="13" t="s">
         <v>7</v>
       </c>
@@ -21781,9 +21781,9 @@
       <c r="H285" s="113"/>
     </row>
     <row r="286" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="C286" s="115"/>
-      <c r="D286" s="115"/>
-      <c r="E286" s="115"/>
+      <c r="C286" s="117"/>
+      <c r="D286" s="117"/>
+      <c r="E286" s="117"/>
       <c r="F286" s="111"/>
       <c r="G286" s="114"/>
       <c r="H286" s="111"/>
@@ -21809,7 +21809,7 @@
       </c>
     </row>
     <row r="288" spans="3:9">
-      <c r="C288" s="82"/>
+      <c r="C288" s="108"/>
       <c r="D288" s="6"/>
       <c r="E288" s="30"/>
       <c r="F288" s="8"/>
@@ -21817,7 +21817,7 @@
       <c r="H288" s="12"/>
     </row>
     <row r="289" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C289" s="83"/>
+      <c r="C289" s="109"/>
       <c r="D289" s="13"/>
       <c r="E289" s="79"/>
       <c r="F289" s="80"/>
@@ -21876,7 +21876,7 @@
       </c>
     </row>
     <row r="298" spans="3:8" ht="49.5">
-      <c r="C298" s="82">
+      <c r="C298" s="108">
         <v>1</v>
       </c>
       <c r="D298" s="6" t="s">
@@ -21896,7 +21896,7 @@
       </c>
     </row>
     <row r="299" spans="3:8" ht="60" customHeight="1" thickBot="1">
-      <c r="C299" s="83"/>
+      <c r="C299" s="109"/>
       <c r="D299" s="13" t="s">
         <v>7</v>
       </c>
@@ -21908,7 +21908,7 @@
       <c r="H299" s="81"/>
     </row>
     <row r="300" spans="3:8" ht="84.75" customHeight="1">
-      <c r="C300" s="82">
+      <c r="C300" s="108">
         <v>2</v>
       </c>
       <c r="D300" s="6" t="s">
@@ -21928,7 +21928,7 @@
       </c>
     </row>
     <row r="301" spans="3:8">
-      <c r="C301" s="83"/>
+      <c r="C301" s="109"/>
       <c r="D301" s="13" t="s">
         <v>7</v>
       </c>
@@ -21940,7 +21940,7 @@
       <c r="H301" s="81"/>
     </row>
     <row r="302" spans="3:8" ht="33">
-      <c r="C302" s="82">
+      <c r="C302" s="108">
         <v>3</v>
       </c>
       <c r="D302" s="6" t="s">
@@ -21960,7 +21960,7 @@
       </c>
     </row>
     <row r="303" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C303" s="83"/>
+      <c r="C303" s="109"/>
       <c r="D303" s="13" t="s">
         <v>7</v>
       </c>
@@ -21972,7 +21972,7 @@
       <c r="H303" s="81"/>
     </row>
     <row r="304" spans="3:8" ht="42.75" customHeight="1">
-      <c r="C304" s="82">
+      <c r="C304" s="108">
         <v>3</v>
       </c>
       <c r="D304" s="6" t="s">
@@ -21992,7 +21992,7 @@
       </c>
     </row>
     <row r="305" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C305" s="83"/>
+      <c r="C305" s="109"/>
       <c r="D305" s="13" t="s">
         <v>7</v>
       </c>
@@ -22004,7 +22004,7 @@
       <c r="H305" s="81"/>
     </row>
     <row r="306" spans="3:8" ht="49.5">
-      <c r="C306" s="82">
+      <c r="C306" s="108">
         <v>4</v>
       </c>
       <c r="D306" s="6" t="s">
@@ -22024,7 +22024,7 @@
       </c>
     </row>
     <row r="307" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C307" s="83"/>
+      <c r="C307" s="109"/>
       <c r="D307" s="13" t="s">
         <v>7</v>
       </c>
@@ -22060,12 +22060,12 @@
       <c r="D309" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E309" s="89" t="s">
+      <c r="E309" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F309" s="85"/>
-      <c r="G309" s="85"/>
-      <c r="H309" s="86"/>
+      <c r="F309" s="91"/>
+      <c r="G309" s="91"/>
+      <c r="H309" s="92"/>
     </row>
     <row r="310" spans="3:8" ht="49.5">
       <c r="C310" s="77">
@@ -22092,12 +22092,12 @@
       <c r="D311" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E311" s="84" t="s">
+      <c r="E311" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="F311" s="85"/>
-      <c r="G311" s="85"/>
-      <c r="H311" s="86"/>
+      <c r="F311" s="91"/>
+      <c r="G311" s="91"/>
+      <c r="H311" s="92"/>
     </row>
     <row r="312" spans="3:8" ht="82.5">
       <c r="C312" s="77">
@@ -22124,15 +22124,15 @@
       <c r="D313" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E313" s="84" t="s">
+      <c r="E313" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="F313" s="85"/>
-      <c r="G313" s="85"/>
-      <c r="H313" s="86"/>
+      <c r="F313" s="91"/>
+      <c r="G313" s="91"/>
+      <c r="H313" s="92"/>
     </row>
     <row r="314" spans="3:8" ht="33">
-      <c r="C314" s="82">
+      <c r="C314" s="108">
         <v>8</v>
       </c>
       <c r="D314" s="6" t="s">
@@ -22152,7 +22152,7 @@
       </c>
     </row>
     <row r="315" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C315" s="83"/>
+      <c r="C315" s="109"/>
       <c r="D315" s="13" t="s">
         <v>7</v>
       </c>
@@ -22164,7 +22164,7 @@
       <c r="H315" s="81"/>
     </row>
     <row r="316" spans="3:8" ht="34.5" customHeight="1">
-      <c r="C316" s="82">
+      <c r="C316" s="108">
         <v>9</v>
       </c>
       <c r="D316" s="6" t="s">
@@ -22184,7 +22184,7 @@
       </c>
     </row>
     <row r="317" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C317" s="83"/>
+      <c r="C317" s="109"/>
       <c r="D317" s="13" t="s">
         <v>7</v>
       </c>
@@ -22196,7 +22196,7 @@
       <c r="H317" s="81"/>
     </row>
     <row r="318" spans="3:8">
-      <c r="C318" s="82"/>
+      <c r="C318" s="108"/>
       <c r="D318" s="6"/>
       <c r="E318" s="37"/>
       <c r="F318" s="15"/>
@@ -22204,7 +22204,7 @@
       <c r="H318" s="12"/>
     </row>
     <row r="319" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C319" s="83"/>
+      <c r="C319" s="109"/>
       <c r="D319" s="13" t="s">
         <v>7</v>
       </c>
@@ -22214,7 +22214,7 @@
       <c r="H319" s="81"/>
     </row>
     <row r="320" spans="3:8">
-      <c r="C320" s="82"/>
+      <c r="C320" s="108"/>
       <c r="D320" s="6"/>
       <c r="E320" s="37"/>
       <c r="F320" s="15"/>
@@ -22222,7 +22222,7 @@
       <c r="H320" s="12"/>
     </row>
     <row r="321" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C321" s="83"/>
+      <c r="C321" s="109"/>
       <c r="D321" s="13" t="s">
         <v>7</v>
       </c>
@@ -22283,7 +22283,7 @@
       </c>
     </row>
     <row r="332" spans="3:8" ht="49.5">
-      <c r="C332" s="82">
+      <c r="C332" s="108">
         <v>1</v>
       </c>
       <c r="D332" s="6" t="s">
@@ -22303,7 +22303,7 @@
       </c>
     </row>
     <row r="333" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C333" s="83"/>
+      <c r="C333" s="109"/>
       <c r="D333" s="13" t="s">
         <v>7</v>
       </c>
@@ -22315,7 +22315,7 @@
       <c r="H333" s="81"/>
     </row>
     <row r="334" spans="3:8" ht="82.5">
-      <c r="C334" s="82">
+      <c r="C334" s="108">
         <v>2</v>
       </c>
       <c r="D334" s="6" t="s">
@@ -22335,7 +22335,7 @@
       </c>
     </row>
     <row r="335" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C335" s="83"/>
+      <c r="C335" s="109"/>
       <c r="D335" s="13" t="s">
         <v>7</v>
       </c>
@@ -22347,7 +22347,7 @@
       <c r="H335" s="81"/>
     </row>
     <row r="336" spans="3:8" ht="66">
-      <c r="C336" s="82">
+      <c r="C336" s="108">
         <v>3</v>
       </c>
       <c r="D336" s="6" t="s">
@@ -22367,7 +22367,7 @@
       </c>
     </row>
     <row r="337" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C337" s="83"/>
+      <c r="C337" s="109"/>
       <c r="D337" s="13" t="s">
         <v>7</v>
       </c>
@@ -22379,7 +22379,7 @@
       <c r="H337" s="81"/>
     </row>
     <row r="338" spans="3:8" ht="33">
-      <c r="C338" s="82">
+      <c r="C338" s="108">
         <v>4</v>
       </c>
       <c r="D338" s="6" t="s">
@@ -22399,7 +22399,7 @@
       </c>
     </row>
     <row r="339" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C339" s="83"/>
+      <c r="C339" s="109"/>
       <c r="D339" s="13" t="s">
         <v>7</v>
       </c>
@@ -22411,7 +22411,7 @@
       <c r="H339" s="81"/>
     </row>
     <row r="340" spans="3:8" ht="33">
-      <c r="C340" s="82">
+      <c r="C340" s="108">
         <v>5</v>
       </c>
       <c r="D340" s="6" t="s">
@@ -22431,7 +22431,7 @@
       </c>
     </row>
     <row r="341" spans="3:8" ht="76.5" customHeight="1" thickBot="1">
-      <c r="C341" s="83"/>
+      <c r="C341" s="109"/>
       <c r="D341" s="13" t="s">
         <v>7</v>
       </c>
@@ -22443,7 +22443,7 @@
       <c r="H341" s="81"/>
     </row>
     <row r="342" spans="3:8">
-      <c r="C342" s="82"/>
+      <c r="C342" s="108"/>
       <c r="D342" s="6"/>
       <c r="E342" s="63"/>
       <c r="F342" s="27"/>
@@ -22451,7 +22451,7 @@
       <c r="H342" s="59"/>
     </row>
     <row r="343" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C343" s="83"/>
+      <c r="C343" s="109"/>
       <c r="D343" s="13" t="s">
         <v>7</v>
       </c>
@@ -22461,7 +22461,7 @@
       <c r="H343" s="81"/>
     </row>
     <row r="344" spans="3:8">
-      <c r="C344" s="82"/>
+      <c r="C344" s="108"/>
       <c r="D344" s="6"/>
       <c r="E344" s="63"/>
       <c r="F344" s="27"/>
@@ -22469,7 +22469,7 @@
       <c r="H344" s="59"/>
     </row>
     <row r="345" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C345" s="83"/>
+      <c r="C345" s="109"/>
       <c r="D345" s="13" t="s">
         <v>7</v>
       </c>
@@ -22480,6 +22480,258 @@
     </row>
   </sheetData>
   <mergeCells count="276">
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="E191:H191"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="E189:H189"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="E315:H315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="E317:H317"/>
+    <mergeCell ref="E247:H247"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="E211:H211"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="E217:H217"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="E215:H215"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="E209:H209"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="E153:H153"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="E195:H195"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E193:H193"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="E159:H159"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="E157:H157"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="E155:H155"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="E165:H165"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="G87:H88"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="E339:H339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="E341:H341"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="E343:H343"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:H206"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:H226"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="G285:H286"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="G295:H296"/>
+    <mergeCell ref="F329:F330"/>
+    <mergeCell ref="G329:H330"/>
+    <mergeCell ref="C285:E286"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="E213:H213"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="E345:H345"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E131:H131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E133:H133"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E135:H135"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="E143:H143"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="E303:H303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="E305:H305"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E117:H117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E119:H119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="E187:H187"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="E335:H335"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="E307:H307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="E309:H309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="E311:H311"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="E313:H313"/>
+    <mergeCell ref="C329:E330"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="E333:H333"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="E319:H319"/>
+    <mergeCell ref="E321:H321"/>
+    <mergeCell ref="E275:H275"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="E273:H273"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="E277:H277"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E147:H147"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="E145:H145"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="E185:H185"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E169:H169"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="E167:H167"/>
+    <mergeCell ref="E171:H171"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="E229:H229"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="E231:H231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="E233:H233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="E301:H301"/>
+    <mergeCell ref="C295:E296"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="E299:H299"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="E289:H289"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="C269:E270"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="E279:H279"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="G269:H270"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="C257:E258"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="G241:H242"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="G257:H258"/>
+    <mergeCell ref="C241:E242"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="E219:H219"/>
+    <mergeCell ref="C225:E226"/>
+    <mergeCell ref="C205:E206"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="C181:E182"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="E199:H199"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="E175:H175"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E25:H25"/>
     <mergeCell ref="C336:C337"/>
     <mergeCell ref="E337:H337"/>
     <mergeCell ref="C98:C99"/>
@@ -22504,258 +22756,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="E61:H61"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="E219:H219"/>
-    <mergeCell ref="C225:E226"/>
-    <mergeCell ref="C205:E206"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="C181:E182"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="E199:H199"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="E175:H175"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="C257:E258"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="G241:H242"/>
-    <mergeCell ref="F257:F258"/>
-    <mergeCell ref="G257:H258"/>
-    <mergeCell ref="C241:E242"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="E229:H229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="E231:H231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="E233:H233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="E301:H301"/>
-    <mergeCell ref="C295:E296"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="E299:H299"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="E289:H289"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="C269:E270"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="E279:H279"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="G269:H270"/>
-    <mergeCell ref="E275:H275"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="E273:H273"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="E277:H277"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="E335:H335"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="E307:H307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="E309:H309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="E311:H311"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="E313:H313"/>
-    <mergeCell ref="C329:E330"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="E333:H333"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="E303:H303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="E305:H305"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E117:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E119:H119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="E187:H187"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="E147:H147"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="E145:H145"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="E185:H185"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E169:H169"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="E167:H167"/>
-    <mergeCell ref="E171:H171"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="E345:H345"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E131:H131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E133:H133"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E135:H135"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="E143:H143"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="E339:H339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="E341:H341"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="E343:H343"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:H182"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:H206"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:H226"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="G285:H286"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="G295:H296"/>
-    <mergeCell ref="F329:F330"/>
-    <mergeCell ref="G329:H330"/>
-    <mergeCell ref="C285:E286"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="E213:H213"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="G87:H88"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="E153:H153"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E151:H151"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="E195:H195"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="E193:H193"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="E159:H159"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="E157:H157"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="E155:H155"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="E173:H173"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="E165:H165"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="E319:H319"/>
-    <mergeCell ref="E321:H321"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E197:H197"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="E191:H191"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="E189:H189"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="E315:H315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="E317:H317"/>
-    <mergeCell ref="E247:H247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="E211:H211"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="E217:H217"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="E215:H215"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="E209:H209"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22767,7 +22767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FF48C6-426D-44C5-A851-B799D6C65A30}">
   <dimension ref="A20:P377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
       <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
@@ -23032,13 +23032,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="39" t="s">
@@ -23064,18 +23064,18 @@
       <c r="E5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
     </row>
     <row r="6" spans="2:15" ht="34.5" customHeight="1">
       <c r="B6" s="38">
@@ -23090,18 +23090,18 @@
       <c r="E6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
     </row>
     <row r="7" spans="2:15" ht="34.5" customHeight="1">
       <c r="B7" s="38">
@@ -23116,21 +23116,21 @@
       <c r="E7" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
     </row>
     <row r="8" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B8" s="122">
+      <c r="B8" s="120">
         <v>4</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -23142,21 +23142,21 @@
       <c r="E8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
     </row>
     <row r="9" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B9" s="122"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="40" t="s">
         <v>155</v>
       </c>
@@ -23166,19 +23166,19 @@
       <c r="E9" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B10" s="122">
+      <c r="B10" s="120">
         <v>5</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -23190,21 +23190,21 @@
       <c r="E10" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
     </row>
     <row r="11" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="40" t="s">
         <v>154</v>
       </c>
@@ -23214,16 +23214,16 @@
       <c r="E11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="38">
@@ -23238,21 +23238,21 @@
       <c r="E12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="2:15" ht="37.5" customHeight="1">
-      <c r="B13" s="122">
+      <c r="B13" s="120">
         <v>7</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -23264,21 +23264,21 @@
       <c r="E13" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="122"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="43" t="s">
         <v>154</v>
       </c>
@@ -23288,16 +23288,16 @@
       <c r="E14" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1">
       <c r="B15" s="38">
@@ -23312,26 +23312,21 @@
       <c r="E15" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="125" t="s">
+      <c r="F15" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:O9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:O11"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="F12:O12"/>
@@ -23339,6 +23334,11 @@
     <mergeCell ref="F13:O14"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:O9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23386,16 +23386,16 @@
       <c r="F4" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="38">
@@ -23410,16 +23410,16 @@
       <c r="F5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
     </row>
     <row r="6" spans="3:15" ht="48" customHeight="1">
       <c r="C6" s="38">
@@ -23434,16 +23434,16 @@
       <c r="F6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
     </row>
     <row r="7" spans="3:15" ht="57" customHeight="1">
       <c r="C7" s="38">
@@ -23554,16 +23554,16 @@
       <c r="F11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
       <c r="O11" t="s">
         <v>11</v>
       </c>
@@ -23581,16 +23581,16 @@
       <c r="F12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
       <c r="O12" t="s">
         <v>11</v>
       </c>
@@ -23667,7 +23667,7 @@
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="122">
+      <c r="C4" s="120">
         <v>1</v>
       </c>
       <c r="D4" s="131" t="s">
@@ -23676,24 +23676,24 @@
       <c r="E4" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="122"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="130"/>
       <c r="E5" s="130"/>
-      <c r="F5" s="122"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="128" t="s">
         <v>177</v>
       </c>
@@ -23717,15 +23717,15 @@
       <c r="F6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="38">
@@ -23740,15 +23740,15 @@
       <c r="F7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="38">
@@ -23763,15 +23763,15 @@
       <c r="F8" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="3:13" ht="33" customHeight="1">
       <c r="C9" s="38">
@@ -23809,15 +23809,15 @@
       <c r="F10" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="3:13" ht="39" customHeight="1">
       <c r="C11" s="38">
@@ -23832,23 +23832,18 @@
       <c r="F11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="F4:F5"/>
@@ -23856,6 +23851,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/오류분석/2022_07_06_Labeling_오류분석.xlsx
+++ b/오류분석/2022_07_06_Labeling_오류분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F4EF15-E1BA-4788-9396-420874C6F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827CC4D-507C-46EB-A688-91000E193DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1530" windowWidth="22530" windowHeight="13785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1350" windowWidth="22530" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="480">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6205,10 +6205,6 @@
   <si>
     <t>기타 공삼품
 의 상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연/뮤지컬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -14541,16 +14537,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>508996</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>375646</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457567</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>134045</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324217</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>172145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14573,7 +14569,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10110196" y="46662975"/>
+          <a:off x="9291046" y="46910625"/>
           <a:ext cx="2005971" cy="3801170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15429,7 +15425,7 @@
   <dimension ref="C1:N198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17954,8 +17950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF6FD2-D895-433B-BA5E-506A3DBBE8BB}">
   <dimension ref="C2:N345"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="E341" sqref="E341:H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17979,14 +17975,14 @@
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="110" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G3" s="112" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="113"/>
       <c r="J3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="17.25" thickBot="1">
@@ -17997,13 +17993,13 @@
       <c r="G4" s="114"/>
       <c r="H4" s="111"/>
       <c r="J4" s="70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K4" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="L4" s="65" t="s">
         <v>472</v>
-      </c>
-      <c r="L4" s="65" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="22.5" customHeight="1" thickBot="1">
@@ -18026,7 +18022,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K5" s="66">
         <f>COUNT(C6:C31)</f>
@@ -18042,19 +18038,19 @@
         <v>4</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K6" s="66">
         <f>COUNT(C40)</f>
@@ -18068,7 +18064,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F7" s="91"/>
       <c r="G7" s="91"/>
@@ -18093,7 +18089,7 @@
         <v>194</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>16</v>
@@ -18102,7 +18098,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K8" s="66">
         <f>COUNT(C70:C81)</f>
@@ -18122,7 +18118,7 @@
       <c r="G9" s="91"/>
       <c r="H9" s="92"/>
       <c r="J9" s="68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K9" s="66">
         <f>COUNT(C90:C175)</f>
@@ -18141,16 +18137,16 @@
         <v>19</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K10" s="66">
         <f>COUNT(C184:C199)</f>
@@ -18170,7 +18166,7 @@
       <c r="G11" s="90"/>
       <c r="H11" s="96"/>
       <c r="J11" s="68" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K11" s="66">
         <f>COUNT(C208:C219)</f>
@@ -18186,10 +18182,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>6</v>
@@ -18198,7 +18194,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K12" s="66">
         <f>COUNT(C228:C235)</f>
@@ -18218,7 +18214,7 @@
       <c r="G13" s="91"/>
       <c r="H13" s="92"/>
       <c r="J13" s="68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K13" s="66">
         <f>COUNT(C244:C251)</f>
@@ -18237,7 +18233,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>6</v>
@@ -18246,7 +18242,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K14" s="66">
         <f>COUNT(C272:C279)</f>
@@ -18266,7 +18262,7 @@
       <c r="G15" s="106"/>
       <c r="H15" s="107"/>
       <c r="J15" s="68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K15" s="66">
         <v>2</v>
@@ -18281,16 +18277,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J16" s="68" t="s">
         <v>154</v>
@@ -18313,7 +18309,7 @@
       <c r="G17" s="90"/>
       <c r="H17" s="96"/>
       <c r="J17" s="68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K17" s="66">
         <f>COUNT(C332:C345)</f>
@@ -18332,7 +18328,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G18" s="47" t="s">
         <v>6</v>
@@ -18341,11 +18337,11 @@
         <v>6</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K18" s="66">
         <f>COUNT(C260:C263)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="64"/>
     </row>
@@ -18361,11 +18357,11 @@
       <c r="G19" s="91"/>
       <c r="H19" s="92"/>
       <c r="J19" s="68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K19" s="66">
         <f>SUM(K5:K18)</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="64"/>
     </row>
@@ -18380,7 +18376,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>6</v>
@@ -18389,11 +18385,11 @@
         <v>6</v>
       </c>
       <c r="J20" s="68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K20" s="66">
         <f>(K19/(395+60+702))*100</f>
-        <v>8.2973206568712179</v>
+        <v>8.210890233362143</v>
       </c>
       <c r="L20" s="64"/>
     </row>
@@ -18420,7 +18416,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>6</v>
@@ -18433,7 +18429,7 @@
       </c>
       <c r="K22" s="66">
         <f>COUNTIF(C5:H345, "문어")</f>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="35.25" customHeight="1" thickBot="1">
@@ -18463,23 +18459,23 @@
         <v>4</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F24" s="49" t="s">
         <v>209</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J24" s="68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K24" s="66">
         <f>SUM(K22:K23)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:12" ht="35.25" customHeight="1" thickBot="1">
@@ -18488,7 +18484,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
@@ -18502,16 +18498,16 @@
         <v>4</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>209</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="35.25" customHeight="1" thickBot="1">
@@ -18520,7 +18516,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F27" s="106"/>
       <c r="G27" s="106"/>
@@ -18607,7 +18603,7 @@
       <c r="D37" s="71"/>
       <c r="E37" s="71"/>
       <c r="F37" s="110" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G37" s="112" t="s">
         <v>42</v>
@@ -18744,10 +18740,10 @@
         <v>4</v>
       </c>
       <c r="E50" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>16</v>
@@ -18762,7 +18758,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F51" s="90"/>
       <c r="G51" s="90"/>
@@ -18776,16 +18772,16 @@
         <v>4</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="45.75" customHeight="1" thickBot="1">
@@ -18794,7 +18790,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F53" s="90"/>
       <c r="G53" s="90"/>
@@ -18808,16 +18804,16 @@
         <v>4</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="45.75" customHeight="1" thickBot="1">
@@ -18826,7 +18822,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F55" s="90"/>
       <c r="G55" s="90"/>
@@ -18840,16 +18836,16 @@
         <v>4</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="45.75" customHeight="1" thickBot="1">
@@ -18858,7 +18854,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="90" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F57" s="90"/>
       <c r="G57" s="90"/>
@@ -18943,7 +18939,7 @@
       <c r="D67" s="71"/>
       <c r="E67" s="71"/>
       <c r="F67" s="110" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G67" s="112" t="s">
         <v>42</v>
@@ -19018,16 +19014,16 @@
         <v>4</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="30" customHeight="1" thickBot="1">
@@ -19036,7 +19032,7 @@
         <v>7</v>
       </c>
       <c r="E73" s="90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F73" s="91"/>
       <c r="G73" s="91"/>
@@ -19050,16 +19046,16 @@
         <v>4</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="30" customHeight="1" thickBot="1">
@@ -19068,7 +19064,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F75" s="91"/>
       <c r="G75" s="91"/>
@@ -19171,7 +19167,7 @@
       <c r="D87" s="71"/>
       <c r="E87" s="71"/>
       <c r="F87" s="110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G87" s="112" t="s">
         <v>42</v>
@@ -19278,7 +19274,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>209</v>
@@ -19296,7 +19292,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F95" s="91"/>
       <c r="G95" s="91"/>
@@ -19310,16 +19306,16 @@
         <v>4</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G96" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H96" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
@@ -19328,7 +19324,7 @@
         <v>7</v>
       </c>
       <c r="E97" s="90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F97" s="91"/>
       <c r="G97" s="91"/>
@@ -19342,10 +19338,10 @@
         <v>4</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G98" s="49" t="s">
         <v>209</v>
@@ -19360,7 +19356,7 @@
         <v>7</v>
       </c>
       <c r="E99" s="90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F99" s="91"/>
       <c r="G99" s="91"/>
@@ -19374,7 +19370,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>188</v>
@@ -19392,7 +19388,7 @@
         <v>7</v>
       </c>
       <c r="E101" s="90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F101" s="91"/>
       <c r="G101" s="91"/>
@@ -19406,10 +19402,10 @@
         <v>4</v>
       </c>
       <c r="E102" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F102" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="G102" s="49" t="s">
         <v>16</v>
@@ -19424,7 +19420,7 @@
         <v>7</v>
       </c>
       <c r="E103" s="90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F103" s="91"/>
       <c r="G103" s="91"/>
@@ -19438,16 +19434,16 @@
         <v>4</v>
       </c>
       <c r="E104" s="62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H104" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
@@ -19456,7 +19452,7 @@
         <v>7</v>
       </c>
       <c r="E105" s="90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F105" s="91"/>
       <c r="G105" s="91"/>
@@ -19470,16 +19466,16 @@
         <v>11</v>
       </c>
       <c r="E106" s="62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G106" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H106" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
@@ -19488,7 +19484,7 @@
         <v>7</v>
       </c>
       <c r="E107" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F107" s="91"/>
       <c r="G107" s="91"/>
@@ -19502,16 +19498,16 @@
         <v>4</v>
       </c>
       <c r="E108" s="62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>188</v>
       </c>
       <c r="G108" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H108" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
@@ -19520,7 +19516,7 @@
         <v>7</v>
       </c>
       <c r="E109" s="90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F109" s="91"/>
       <c r="G109" s="91"/>
@@ -19534,7 +19530,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F110" s="15" t="s">
         <v>209</v>
@@ -19552,7 +19548,7 @@
         <v>7</v>
       </c>
       <c r="E111" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F111" s="91"/>
       <c r="G111" s="91"/>
@@ -19566,7 +19562,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>209</v>
@@ -19584,7 +19580,7 @@
         <v>7</v>
       </c>
       <c r="E113" s="90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F113" s="91"/>
       <c r="G113" s="91"/>
@@ -19595,10 +19591,10 @@
         <v>13</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E114" s="62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>209</v>
@@ -19616,7 +19612,7 @@
         <v>7</v>
       </c>
       <c r="E115" s="90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F115" s="91"/>
       <c r="G115" s="91"/>
@@ -19630,16 +19626,16 @@
         <v>4</v>
       </c>
       <c r="E116" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="F116" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="G116" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="G116" s="49" t="s">
-        <v>343</v>
-      </c>
       <c r="H116" s="49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
@@ -19660,7 +19656,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>188</v>
@@ -19678,7 +19674,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F119" s="91"/>
       <c r="G119" s="91"/>
@@ -19692,7 +19688,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>188</v>
@@ -19710,7 +19706,7 @@
         <v>7</v>
       </c>
       <c r="E121" s="90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F121" s="91"/>
       <c r="G121" s="91"/>
@@ -19724,16 +19720,16 @@
         <v>4</v>
       </c>
       <c r="E122" s="62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F122" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G122" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H122" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="3:8" ht="31.5" customHeight="1" thickBot="1">
@@ -19742,7 +19738,7 @@
         <v>7</v>
       </c>
       <c r="E123" s="90" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F123" s="91"/>
       <c r="G123" s="91"/>
@@ -19756,16 +19752,16 @@
         <v>4</v>
       </c>
       <c r="E124" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="F124" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="F124" s="15" t="s">
+      <c r="G124" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="G124" s="49" t="s">
-        <v>365</v>
-      </c>
       <c r="H124" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="3:8" ht="65.25" customHeight="1" thickBot="1">
@@ -19774,7 +19770,7 @@
         <v>7</v>
       </c>
       <c r="E125" s="90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F125" s="91"/>
       <c r="G125" s="91"/>
@@ -19788,7 +19784,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F126" s="15" t="s">
         <v>228</v>
@@ -19806,7 +19802,7 @@
         <v>7</v>
       </c>
       <c r="E127" s="90" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F127" s="91"/>
       <c r="G127" s="91"/>
@@ -19820,10 +19816,10 @@
         <v>4</v>
       </c>
       <c r="E128" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="F128" s="15" t="s">
         <v>376</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>377</v>
       </c>
       <c r="G128" s="49" t="s">
         <v>209</v>
@@ -19838,7 +19834,7 @@
         <v>7</v>
       </c>
       <c r="E129" s="90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F129" s="91"/>
       <c r="G129" s="91"/>
@@ -19852,10 +19848,10 @@
         <v>4</v>
       </c>
       <c r="E130" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G130" s="49" t="s">
         <v>16</v>
@@ -19870,7 +19866,7 @@
         <v>7</v>
       </c>
       <c r="E131" s="90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F131" s="91"/>
       <c r="G131" s="91"/>
@@ -19884,16 +19880,16 @@
         <v>11</v>
       </c>
       <c r="E132" s="62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G132" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H132" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="40.5" customHeight="1" thickBot="1">
@@ -19902,7 +19898,7 @@
         <v>7</v>
       </c>
       <c r="E133" s="90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F133" s="91"/>
       <c r="G133" s="91"/>
@@ -19916,7 +19912,7 @@
         <v>11</v>
       </c>
       <c r="E134" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>188</v>
@@ -19934,7 +19930,7 @@
         <v>7</v>
       </c>
       <c r="E135" s="90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F135" s="91"/>
       <c r="G135" s="91"/>
@@ -19948,10 +19944,10 @@
         <v>4</v>
       </c>
       <c r="E136" s="62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G136" s="49" t="s">
         <v>209</v>
@@ -19966,7 +19962,7 @@
         <v>7</v>
       </c>
       <c r="E137" s="90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F137" s="91"/>
       <c r="G137" s="91"/>
@@ -19980,16 +19976,16 @@
         <v>4</v>
       </c>
       <c r="E138" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F138" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G138" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H138" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="40.5" customHeight="1" thickBot="1">
@@ -19998,7 +19994,7 @@
         <v>7</v>
       </c>
       <c r="E139" s="90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F139" s="91"/>
       <c r="G139" s="91"/>
@@ -20012,16 +20008,16 @@
         <v>11</v>
       </c>
       <c r="E140" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F140" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G140" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H140" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="40.5" customHeight="1" thickBot="1">
@@ -20030,7 +20026,7 @@
         <v>7</v>
       </c>
       <c r="E141" s="90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F141" s="91"/>
       <c r="G141" s="91"/>
@@ -20044,10 +20040,10 @@
         <v>11</v>
       </c>
       <c r="E142" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G142" s="49" t="s">
         <v>209</v>
@@ -20056,7 +20052,7 @@
         <v>209</v>
       </c>
       <c r="I142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="40.5" customHeight="1" thickBot="1">
@@ -20065,7 +20061,7 @@
         <v>7</v>
       </c>
       <c r="E143" s="90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F143" s="91"/>
       <c r="G143" s="91"/>
@@ -20079,7 +20075,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>188</v>
@@ -20097,7 +20093,7 @@
         <v>7</v>
       </c>
       <c r="E145" s="90" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F145" s="91"/>
       <c r="G145" s="91"/>
@@ -20111,10 +20107,10 @@
         <v>11</v>
       </c>
       <c r="E146" s="62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G146" s="49" t="s">
         <v>209</v>
@@ -20129,7 +20125,7 @@
         <v>7</v>
       </c>
       <c r="E147" s="90" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F147" s="91"/>
       <c r="G147" s="91"/>
@@ -20143,16 +20139,16 @@
         <v>11</v>
       </c>
       <c r="E148" s="62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F148" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G148" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
@@ -20161,7 +20157,7 @@
         <v>7</v>
       </c>
       <c r="E149" s="90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F149" s="91"/>
       <c r="G149" s="91"/>
@@ -20175,10 +20171,10 @@
         <v>4</v>
       </c>
       <c r="E150" s="62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G150" s="49" t="s">
         <v>209</v>
@@ -20193,7 +20189,7 @@
         <v>7</v>
       </c>
       <c r="E151" s="90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F151" s="91"/>
       <c r="G151" s="91"/>
@@ -20207,7 +20203,7 @@
         <v>11</v>
       </c>
       <c r="E152" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F152" s="15" t="s">
         <v>188</v>
@@ -20225,7 +20221,7 @@
         <v>7</v>
       </c>
       <c r="E153" s="90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F153" s="91"/>
       <c r="G153" s="91"/>
@@ -20239,10 +20235,10 @@
         <v>4</v>
       </c>
       <c r="E154" s="62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G154" s="49" t="s">
         <v>209</v>
@@ -20257,7 +20253,7 @@
         <v>7</v>
       </c>
       <c r="E155" s="90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F155" s="91"/>
       <c r="G155" s="91"/>
@@ -20271,10 +20267,10 @@
         <v>11</v>
       </c>
       <c r="E156" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="F156" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="G156" s="49" t="s">
         <v>209</v>
@@ -20289,7 +20285,7 @@
         <v>7</v>
       </c>
       <c r="E157" s="90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F157" s="91"/>
       <c r="G157" s="91"/>
@@ -20303,7 +20299,7 @@
         <v>11</v>
       </c>
       <c r="E158" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F158" s="15" t="s">
         <v>209</v>
@@ -20321,7 +20317,7 @@
         <v>7</v>
       </c>
       <c r="E159" s="90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F159" s="91"/>
       <c r="G159" s="91"/>
@@ -20335,16 +20331,16 @@
         <v>4</v>
       </c>
       <c r="E160" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F160" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G160" s="49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H160" s="50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
@@ -20353,7 +20349,7 @@
         <v>7</v>
       </c>
       <c r="E161" s="90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F161" s="91"/>
       <c r="G161" s="91"/>
@@ -20367,7 +20363,7 @@
         <v>11</v>
       </c>
       <c r="E162" s="62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F162" s="15" t="s">
         <v>209</v>
@@ -20385,7 +20381,7 @@
         <v>7</v>
       </c>
       <c r="E163" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F163" s="91"/>
       <c r="G163" s="91"/>
@@ -20399,16 +20395,16 @@
         <v>4</v>
       </c>
       <c r="E164" s="62" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F164" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G164" s="49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H164" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
@@ -20417,7 +20413,7 @@
         <v>7</v>
       </c>
       <c r="E165" s="90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F165" s="91"/>
       <c r="G165" s="91"/>
@@ -20431,7 +20427,7 @@
         <v>11</v>
       </c>
       <c r="E166" s="62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F166" s="15" t="s">
         <v>188</v>
@@ -20449,7 +20445,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F167" s="91"/>
       <c r="G167" s="91"/>
@@ -20463,7 +20459,7 @@
         <v>11</v>
       </c>
       <c r="E168" s="62" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F168" s="15" t="s">
         <v>188</v>
@@ -20481,7 +20477,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F169" s="91"/>
       <c r="G169" s="91"/>
@@ -20584,7 +20580,7 @@
       <c r="D181" s="71"/>
       <c r="E181" s="71"/>
       <c r="F181" s="110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G181" s="112" t="s">
         <v>42</v>
@@ -20659,7 +20655,7 @@
         <v>4</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F186" s="8" t="s">
         <v>209</v>
@@ -20677,7 +20673,7 @@
         <v>7</v>
       </c>
       <c r="E187" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F187" s="80"/>
       <c r="G187" s="80"/>
@@ -20691,16 +20687,16 @@
         <v>11</v>
       </c>
       <c r="E188" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="F188" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="F188" s="15" t="s">
+      <c r="G188" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="G188" s="15" t="s">
-        <v>401</v>
-      </c>
       <c r="H188" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="3:8" ht="78" customHeight="1" thickBot="1">
@@ -20709,7 +20705,7 @@
         <v>7</v>
       </c>
       <c r="E189" s="79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F189" s="80"/>
       <c r="G189" s="80"/>
@@ -20723,16 +20719,16 @@
         <v>4</v>
       </c>
       <c r="E190" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F190" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="F190" s="15" t="s">
+      <c r="G190" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G190" s="8" t="s">
+      <c r="H190" s="56" t="s">
         <v>420</v>
-      </c>
-      <c r="H190" s="56" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="191" spans="3:8" ht="36" customHeight="1" thickBot="1">
@@ -20741,7 +20737,7 @@
         <v>7</v>
       </c>
       <c r="E191" s="79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F191" s="80"/>
       <c r="G191" s="80"/>
@@ -20755,16 +20751,16 @@
         <v>4</v>
       </c>
       <c r="E192" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="F192" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="F192" s="8" t="s">
-        <v>430</v>
-      </c>
       <c r="G192" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H192" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="3:8" ht="36" customHeight="1" thickBot="1">
@@ -20773,7 +20769,7 @@
         <v>7</v>
       </c>
       <c r="E193" s="79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F193" s="80"/>
       <c r="G193" s="80"/>
@@ -20876,7 +20872,7 @@
       <c r="D205" s="71"/>
       <c r="E205" s="71"/>
       <c r="F205" s="110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G205" s="112" t="s">
         <v>42</v>
@@ -20951,16 +20947,16 @@
         <v>11</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F210" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G210" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="H210" s="50" t="s">
         <v>255</v>
-      </c>
-      <c r="H210" s="50" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="211" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
@@ -20969,7 +20965,7 @@
         <v>7</v>
       </c>
       <c r="E211" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F211" s="80"/>
       <c r="G211" s="80"/>
@@ -20983,16 +20979,16 @@
         <v>4</v>
       </c>
       <c r="E212" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G212" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="F212" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G212" s="49" t="s">
-        <v>345</v>
-      </c>
       <c r="H212" s="49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
@@ -21001,7 +20997,7 @@
         <v>7</v>
       </c>
       <c r="E213" s="79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F213" s="80"/>
       <c r="G213" s="80"/>
@@ -21015,16 +21011,16 @@
         <v>4</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G214" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H214" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="3:8" ht="52.5" customHeight="1" thickBot="1">
@@ -21033,7 +21029,7 @@
         <v>7</v>
       </c>
       <c r="E215" s="79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F215" s="80"/>
       <c r="G215" s="80"/>
@@ -21118,7 +21114,7 @@
       <c r="D225" s="71"/>
       <c r="E225" s="71"/>
       <c r="F225" s="110" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G225" s="112" t="s">
         <v>42</v>
@@ -21325,7 +21321,7 @@
       <c r="D241" s="71"/>
       <c r="E241" s="71"/>
       <c r="F241" s="110" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G241" s="112" t="s">
         <v>42</v>
@@ -21374,10 +21370,10 @@
         <v>108</v>
       </c>
       <c r="G244" s="52" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="H244" s="53" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="245" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
@@ -21432,16 +21428,16 @@
         <v>4</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F248" s="27" t="s">
         <v>209</v>
       </c>
       <c r="G248" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H248" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="249" spans="3:8" ht="96.75" customHeight="1" thickBot="1">
@@ -21450,7 +21446,7 @@
         <v>7</v>
       </c>
       <c r="E249" s="79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F249" s="80"/>
       <c r="G249" s="80"/>
@@ -21464,7 +21460,7 @@
         <v>4</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F250" s="27" t="s">
         <v>209</v>
@@ -21482,7 +21478,7 @@
         <v>7</v>
       </c>
       <c r="E251" s="79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F251" s="80"/>
       <c r="G251" s="80"/>
@@ -21504,7 +21500,7 @@
       <c r="D257" s="71"/>
       <c r="E257" s="71"/>
       <c r="F257" s="110" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G257" s="112" t="s">
         <v>42</v>
@@ -21572,33 +21568,17 @@
       <c r="H261" s="81"/>
     </row>
     <row r="262" spans="3:8">
-      <c r="C262" s="77">
-        <v>2</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E262" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F262" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H262" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C262" s="77"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="29"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="8"/>
+      <c r="H262" s="12"/>
     </row>
     <row r="263" spans="3:8" ht="17.25" thickBot="1">
       <c r="C263" s="78"/>
-      <c r="D263" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="79" t="s">
-        <v>122</v>
-      </c>
+      <c r="D263" s="13"/>
+      <c r="E263" s="79"/>
       <c r="F263" s="80"/>
       <c r="G263" s="80"/>
       <c r="H263" s="81"/>
@@ -21619,7 +21599,7 @@
       <c r="D269" s="71"/>
       <c r="E269" s="71"/>
       <c r="F269" s="110" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G269" s="112" t="s">
         <v>42</v>
@@ -21694,7 +21674,7 @@
         <v>11</v>
       </c>
       <c r="E274" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F274" s="8" t="s">
         <v>125</v>
@@ -21706,7 +21686,7 @@
         <v>209</v>
       </c>
       <c r="I274" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="275" spans="3:9" ht="39" customHeight="1" thickBot="1">
@@ -21715,7 +21695,7 @@
         <v>7</v>
       </c>
       <c r="E275" s="79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F275" s="80"/>
       <c r="G275" s="80"/>
@@ -21773,7 +21753,7 @@
       <c r="D285" s="71"/>
       <c r="E285" s="71"/>
       <c r="F285" s="110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G285" s="112" t="s">
         <v>42</v>
@@ -21923,8 +21903,8 @@
       <c r="G300" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H300" s="12" t="s">
-        <v>243</v>
+      <c r="H300" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="301" spans="3:8">
@@ -21933,7 +21913,7 @@
         <v>7</v>
       </c>
       <c r="E301" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F301" s="80"/>
       <c r="G301" s="80"/>
@@ -21947,10 +21927,10 @@
         <v>4</v>
       </c>
       <c r="E302" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F302" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="F302" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="G302" s="8" t="s">
         <v>209</v>
@@ -21965,7 +21945,7 @@
         <v>7</v>
       </c>
       <c r="E303" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F303" s="80"/>
       <c r="G303" s="80"/>
@@ -21979,16 +21959,16 @@
         <v>4</v>
       </c>
       <c r="E304" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="F304" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F304" s="15" t="s">
+      <c r="G304" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G304" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="H304" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="305" spans="3:8" ht="17.25" thickBot="1">
@@ -21997,7 +21977,7 @@
         <v>7</v>
       </c>
       <c r="E305" s="79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F305" s="80"/>
       <c r="G305" s="80"/>
@@ -22011,16 +21991,16 @@
         <v>4</v>
       </c>
       <c r="E306" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F306" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H306" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="307" spans="3:8" ht="17.25" thickBot="1">
@@ -22029,7 +22009,7 @@
         <v>7</v>
       </c>
       <c r="E307" s="79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F307" s="80"/>
       <c r="G307" s="80"/>
@@ -22087,7 +22067,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="311" spans="3:8" ht="17.25" thickBot="1">
+    <row r="311" spans="3:8" ht="51" customHeight="1" thickBot="1">
       <c r="C311" s="78"/>
       <c r="D311" s="13" t="s">
         <v>7</v>
@@ -22107,10 +22087,10 @@
         <v>4</v>
       </c>
       <c r="E312" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F312" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="F312" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="G312" s="49" t="s">
         <v>6</v>
@@ -22125,7 +22105,7 @@
         <v>7</v>
       </c>
       <c r="E313" s="98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F313" s="91"/>
       <c r="G313" s="91"/>
@@ -22139,16 +22119,16 @@
         <v>4</v>
       </c>
       <c r="E314" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F314" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H314" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="315" spans="3:8" ht="17.25" thickBot="1">
@@ -22157,7 +22137,7 @@
         <v>7</v>
       </c>
       <c r="E315" s="79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F315" s="80"/>
       <c r="G315" s="80"/>
@@ -22171,16 +22151,16 @@
         <v>4</v>
       </c>
       <c r="E316" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F316" s="15" t="s">
         <v>209</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H316" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="3:8" ht="17.25" thickBot="1">
@@ -22189,7 +22169,7 @@
         <v>7</v>
       </c>
       <c r="E317" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F317" s="80"/>
       <c r="G317" s="80"/>
@@ -22242,12 +22222,12 @@
     <row r="328" spans="3:8" ht="17.25" thickBot="1"/>
     <row r="329" spans="3:8">
       <c r="C329" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D329" s="71"/>
       <c r="E329" s="71"/>
       <c r="F329" s="110" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G329" s="112" t="s">
         <v>42</v>
@@ -22290,16 +22270,16 @@
         <v>4</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F332" s="27" t="s">
         <v>209</v>
       </c>
       <c r="G332" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H332" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="333" spans="3:8" ht="17.25" thickBot="1">
@@ -22308,7 +22288,7 @@
         <v>7</v>
       </c>
       <c r="E333" s="79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F333" s="80"/>
       <c r="G333" s="80"/>
@@ -22322,16 +22302,16 @@
         <v>4</v>
       </c>
       <c r="E334" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F334" s="27" t="s">
         <v>209</v>
       </c>
       <c r="G334" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H334" s="59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="335" spans="3:8" ht="17.25" thickBot="1">
@@ -22340,7 +22320,7 @@
         <v>7</v>
       </c>
       <c r="E335" s="79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F335" s="80"/>
       <c r="G335" s="80"/>
@@ -22354,16 +22334,16 @@
         <v>4</v>
       </c>
       <c r="E336" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F336" s="27" t="s">
         <v>209</v>
       </c>
       <c r="G336" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H336" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="337" spans="3:8" ht="17.25" thickBot="1">
@@ -22372,7 +22352,7 @@
         <v>7</v>
       </c>
       <c r="E337" s="79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F337" s="80"/>
       <c r="G337" s="80"/>
@@ -22386,16 +22366,16 @@
         <v>4</v>
       </c>
       <c r="E338" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="F338" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="F338" s="27" t="s">
+      <c r="G338" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="G338" s="58" t="s">
-        <v>357</v>
-      </c>
       <c r="H338" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="339" spans="3:8" ht="17.25" thickBot="1">
@@ -22404,7 +22384,7 @@
         <v>7</v>
       </c>
       <c r="E339" s="79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F339" s="80"/>
       <c r="G339" s="80"/>
@@ -22418,16 +22398,16 @@
         <v>4</v>
       </c>
       <c r="E340" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F340" s="27" t="s">
         <v>209</v>
       </c>
       <c r="G340" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H340" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="341" spans="3:8" ht="76.5" customHeight="1" thickBot="1">
@@ -22436,7 +22416,7 @@
         <v>7</v>
       </c>
       <c r="E341" s="79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F341" s="80"/>
       <c r="G341" s="80"/>
@@ -22500,12 +22480,10 @@
     <mergeCell ref="E215:H215"/>
     <mergeCell ref="C208:C209"/>
     <mergeCell ref="E209:H209"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="E153:H153"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="E303:H303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="E305:H305"/>
     <mergeCell ref="C194:C195"/>
     <mergeCell ref="E195:H195"/>
     <mergeCell ref="C192:C193"/>
@@ -22541,6 +22519,7 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="E79:H79"/>
     <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E71:H71"/>
     <mergeCell ref="C338:C339"/>
     <mergeCell ref="E339:H339"/>
     <mergeCell ref="C340:C341"/>
@@ -22589,11 +22568,21 @@
     <mergeCell ref="E135:H135"/>
     <mergeCell ref="C142:C143"/>
     <mergeCell ref="E143:H143"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="E303:H303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="E305:H305"/>
-    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="E187:H187"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="E153:H153"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E151:H151"/>
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="E113:H113"/>
     <mergeCell ref="C116:C117"/>
@@ -22604,15 +22593,8 @@
     <mergeCell ref="E119:H119"/>
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="E121:H121"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="E187:H187"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="E231:H231"/>
     <mergeCell ref="C334:C335"/>
     <mergeCell ref="E335:H335"/>
     <mergeCell ref="C306:C307"/>
@@ -22629,10 +22611,13 @@
     <mergeCell ref="C318:C319"/>
     <mergeCell ref="E319:H319"/>
     <mergeCell ref="E321:H321"/>
+    <mergeCell ref="C320:C321"/>
     <mergeCell ref="E275:H275"/>
     <mergeCell ref="C272:C273"/>
     <mergeCell ref="E273:H273"/>
     <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="E251:H251"/>
     <mergeCell ref="E277:H277"/>
     <mergeCell ref="C274:C275"/>
     <mergeCell ref="C22:C23"/>
@@ -22655,8 +22640,8 @@
     <mergeCell ref="E171:H171"/>
     <mergeCell ref="C228:C229"/>
     <mergeCell ref="E229:H229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="E231:H231"/>
+    <mergeCell ref="E219:H219"/>
+    <mergeCell ref="C225:E226"/>
     <mergeCell ref="C232:C233"/>
     <mergeCell ref="E233:H233"/>
     <mergeCell ref="C234:C235"/>
@@ -22679,19 +22664,13 @@
     <mergeCell ref="G269:H270"/>
     <mergeCell ref="C244:C245"/>
     <mergeCell ref="E245:H245"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="C257:E258"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="G241:H242"/>
-    <mergeCell ref="F257:F258"/>
-    <mergeCell ref="G257:H258"/>
-    <mergeCell ref="C241:E242"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="E219:H219"/>
-    <mergeCell ref="C225:E226"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
     <mergeCell ref="C205:E206"/>
     <mergeCell ref="C87:E88"/>
     <mergeCell ref="C181:E182"/>
@@ -22709,28 +22688,6 @@
     <mergeCell ref="E95:H95"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="E107:H107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="C336:C337"/>
     <mergeCell ref="E337:H337"/>
@@ -22738,6 +22695,23 @@
     <mergeCell ref="E99:H99"/>
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="E101:H101"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="C257:E258"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="G241:H242"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="G257:H258"/>
+    <mergeCell ref="C241:E242"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="C218:C219"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="C14:C15"/>
@@ -22756,6 +22730,12 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="E61:H61"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22767,7 +22747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FF48C6-426D-44C5-A851-B799D6C65A30}">
   <dimension ref="A20:P377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+    <sheetView topLeftCell="A218" workbookViewId="0">
       <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
@@ -22813,7 +22793,7 @@
         <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="2:2">
@@ -22849,161 +22829,161 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G180" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="219" spans="2:8">
       <c r="B219" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="220" spans="2:8">
       <c r="B220" t="s">
+        <v>293</v>
+      </c>
+      <c r="C220" t="s">
         <v>294</v>
       </c>
-      <c r="C220" t="s">
-        <v>295</v>
-      </c>
       <c r="D220" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H220" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="2:16">
       <c r="B277" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H277" t="s">
+        <v>351</v>
+      </c>
+      <c r="L277" t="s">
         <v>352</v>
       </c>
-      <c r="L277" t="s">
+      <c r="P277" t="s">
         <v>353</v>
-      </c>
-      <c r="P277" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="278" spans="2:16">
       <c r="B278" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="314" spans="2:16">
       <c r="B314" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F314" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J314" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M314" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P314" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="315" spans="2:16">
       <c r="B315" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="376" spans="2:8">
       <c r="B376" t="s">
+        <v>474</v>
+      </c>
+      <c r="H376" t="s">
         <v>475</v>
-      </c>
-      <c r="H376" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="377" spans="2:8">
       <c r="H377" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/오류분석/2022_07_06_Labeling_오류분석.xlsx
+++ b/오류분석/2022_07_06_Labeling_오류분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827CC4D-507C-46EB-A688-91000E193DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81405EF6-E4CC-454F-A634-5A6B20CD8F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1350" windowWidth="22530" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23460" yWindow="1155" windowWidth="18780" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -10934,17 +10934,68 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10958,65 +11009,14 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11033,26 +11033,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11064,10 +11055,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13437,14 +13437,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291223</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624598</xdr:colOff>
       <xdr:row>222</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>234</xdr:row>
       <xdr:rowOff>116162</xdr:rowOff>
     </xdr:to>
@@ -13469,7 +13469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3720223" y="47015400"/>
+          <a:off x="1996198" y="47015400"/>
           <a:ext cx="2432927" cy="2592662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13613,16 +13613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>165465</xdr:rowOff>
+      <xdr:rowOff>117840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13645,7 +13645,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705351" y="46933215"/>
+          <a:off x="4000501" y="46885590"/>
           <a:ext cx="1847850" cy="3139709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13658,15 +13658,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>234252</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>262827</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>324372</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>10329</xdr:rowOff>
+      <xdr:colOff>352947</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>181779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13689,7 +13689,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5034852" y="46824900"/>
+          <a:off x="5063427" y="46577250"/>
           <a:ext cx="2147520" cy="3305979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13789,16 +13789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>599691</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199641</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>267132</xdr:colOff>
+      <xdr:colOff>552882</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13821,7 +13821,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086091" y="46910625"/>
+          <a:off x="6371841" y="46967775"/>
           <a:ext cx="1724841" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13834,15 +13834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>267647</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>420047</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>143556</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13865,7 +13865,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6439847" y="46824899"/>
+          <a:off x="6592247" y="46472474"/>
           <a:ext cx="1885004" cy="3648757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13878,15 +13878,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>274725</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>665250</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400475</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>191225</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105200</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>181700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13909,7 +13909,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6446925" y="46586774"/>
+          <a:off x="6837450" y="46367699"/>
           <a:ext cx="2183150" cy="3725001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13921,16 +13921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>531857</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46082</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>267174</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>181632</xdr:rowOff>
+      <xdr:colOff>467199</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>114957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13953,7 +13953,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6704057" y="47082075"/>
+          <a:off x="6904082" y="47224950"/>
           <a:ext cx="2478517" cy="3429657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13965,16 +13965,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13997,7 +13997,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572251" y="46596300"/>
+          <a:off x="7153276" y="46415325"/>
           <a:ext cx="1666874" cy="3857625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14053,16 +14053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437120</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170420</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>248073</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>77060</xdr:rowOff>
+      <xdr:colOff>667173</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>162785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14085,7 +14085,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6609320" y="46186725"/>
+          <a:off x="7028420" y="46062900"/>
           <a:ext cx="1868353" cy="3801335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14097,16 +14097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642997</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347722</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>143254</xdr:colOff>
+      <xdr:colOff>533779</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>181600</xdr:rowOff>
+      <xdr:rowOff>38725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14129,7 +14129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6815197" y="46405800"/>
+          <a:off x="7205722" y="46262925"/>
           <a:ext cx="2243457" cy="3686800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14361,16 +14361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>372281</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>67372</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267506</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>19747</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14393,7 +14393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191375" y="46653450"/>
+          <a:off x="7772400" y="45977175"/>
           <a:ext cx="2782106" cy="3744022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14407,13 +14407,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12240</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14437,7 +14437,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7556040" y="47520225"/>
+          <a:off x="7556040" y="47729775"/>
           <a:ext cx="2045160" cy="2486025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14494,15 +14494,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>176200</xdr:rowOff>
+      <xdr:rowOff>195250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>48288</xdr:rowOff>
+      <xdr:rowOff>67338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14525,7 +14525,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="47153500"/>
+          <a:off x="8305800" y="47172550"/>
           <a:ext cx="1743075" cy="2805788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14538,15 +14538,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>375646</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>324217</xdr:colOff>
+      <xdr:colOff>409942</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>172145</xdr:rowOff>
+      <xdr:rowOff>29270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14569,8 +14569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9291046" y="46910625"/>
-          <a:ext cx="2005971" cy="3801170"/>
+          <a:off x="8924925" y="46767750"/>
+          <a:ext cx="2457817" cy="3801170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15507,16 +15507,16 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="21" customHeight="1" thickBot="1">
-      <c r="C8" s="105"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="3:8" ht="63.75" customHeight="1">
       <c r="C9" s="77">
@@ -15543,12 +15543,12 @@
       <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="3:8" ht="63.75" customHeight="1">
       <c r="C11" s="77">
@@ -15575,12 +15575,12 @@
       <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="96"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="3:8" ht="69.75" customHeight="1">
       <c r="C13" s="77">
@@ -15607,12 +15607,12 @@
       <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="3:8" ht="53.25" customHeight="1">
       <c r="C15" s="77">
@@ -15639,12 +15639,12 @@
       <c r="D16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="3:8" ht="68.25" customHeight="1">
       <c r="C17" s="77">
@@ -15671,12 +15671,12 @@
       <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="3:8" ht="44.25" customHeight="1">
       <c r="C19" s="77">
@@ -15703,12 +15703,12 @@
       <c r="D20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
     </row>
     <row r="21" spans="3:8" ht="90" customHeight="1">
       <c r="C21" s="77">
@@ -15735,12 +15735,12 @@
       <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="3:8" ht="57.75" customHeight="1">
       <c r="C23" s="77">
@@ -15767,12 +15767,12 @@
       <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="96"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
     </row>
     <row r="25" spans="3:8" ht="101.25" customHeight="1">
       <c r="C25" s="77">
@@ -15799,12 +15799,12 @@
       <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="3:8" ht="35.1" customHeight="1">
       <c r="C27" s="77">
@@ -15831,12 +15831,12 @@
       <c r="D28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="107"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88"/>
     </row>
     <row r="29" spans="3:8" ht="48.75" customHeight="1">
       <c r="C29" s="77">
@@ -15863,12 +15863,12 @@
       <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" spans="3:8" ht="80.25" customHeight="1">
       <c r="C31" s="77">
@@ -15895,12 +15895,12 @@
       <c r="D32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
     </row>
     <row r="33" spans="3:8" ht="89.25" customHeight="1">
       <c r="C33" s="77">
@@ -15927,12 +15927,12 @@
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
     </row>
     <row r="35" spans="3:8" ht="47.25" customHeight="1">
       <c r="C35" s="77">
@@ -15959,12 +15959,12 @@
       <c r="D36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="92"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
     </row>
     <row r="37" spans="3:8" ht="101.25" customHeight="1">
       <c r="C37" s="77">
@@ -15991,12 +15991,12 @@
       <c r="D38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="96"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
     </row>
     <row r="39" spans="3:8" ht="60.75" customHeight="1">
       <c r="C39" s="77">
@@ -16023,12 +16023,12 @@
       <c r="D40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="92"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
     </row>
     <row r="41" spans="3:8" ht="35.1" customHeight="1">
       <c r="C41" s="77">
@@ -16055,12 +16055,12 @@
       <c r="D42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
     </row>
     <row r="43" spans="3:8" ht="35.1" customHeight="1">
       <c r="C43" s="77">
@@ -16087,12 +16087,12 @@
       <c r="D44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="101"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="3:8" ht="16.5" customHeight="1">
       <c r="C45" s="34"/>
@@ -16199,12 +16199,12 @@
       <c r="D54" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="85" t="s">
+      <c r="E54" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="103"/>
     </row>
     <row r="55" spans="3:8">
       <c r="D55" s="3"/>
@@ -16309,12 +16309,12 @@
       <c r="D64" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="92"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="3:8">
       <c r="D65" s="3"/>
@@ -16419,12 +16419,12 @@
       <c r="D74" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="102" t="s">
+      <c r="E74" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="92"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="86"/>
     </row>
     <row r="75" spans="3:8" ht="33" customHeight="1">
       <c r="C75" s="77">
@@ -16451,12 +16451,12 @@
       <c r="D76" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="96"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="92"/>
     </row>
     <row r="77" spans="3:8" ht="64.5" customHeight="1">
       <c r="C77" s="77">
@@ -16483,12 +16483,12 @@
       <c r="D78" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="96"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="92"/>
     </row>
     <row r="79" spans="3:8" ht="42" customHeight="1">
       <c r="D79" s="3"/>
@@ -16586,12 +16586,12 @@
       <c r="D87" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="90" t="s">
+      <c r="E87" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="92"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="86"/>
     </row>
     <row r="88" spans="3:8" ht="45" customHeight="1">
       <c r="C88" s="77">
@@ -16618,12 +16618,12 @@
       <c r="D89" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="91" t="s">
+      <c r="E89" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="92"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="86"/>
     </row>
     <row r="90" spans="3:8" ht="45" customHeight="1">
       <c r="C90" s="77">
@@ -16650,12 +16650,12 @@
       <c r="D91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="90" t="s">
+      <c r="E91" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="96"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="92"/>
     </row>
     <row r="92" spans="3:8">
       <c r="D92" s="3"/>
@@ -16792,12 +16792,12 @@
       <c r="D103" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="87" t="s">
+      <c r="E103" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="89"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="106"/>
     </row>
     <row r="104" spans="3:8" ht="43.5" customHeight="1">
       <c r="C104" s="77">
@@ -16824,12 +16824,12 @@
       <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="82" t="s">
+      <c r="E105" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="84"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="109"/>
     </row>
     <row r="106" spans="3:8">
       <c r="D106" s="3"/>
@@ -17194,7 +17194,7 @@
       <c r="H137" s="81"/>
     </row>
     <row r="138" spans="3:14" ht="94.5" customHeight="1">
-      <c r="C138" s="108">
+      <c r="C138" s="82">
         <v>2</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -17215,7 +17215,7 @@
       <c r="I138" s="31"/>
     </row>
     <row r="139" spans="3:14" ht="121.5" customHeight="1" thickBot="1">
-      <c r="C139" s="109"/>
+      <c r="C139" s="83"/>
       <c r="D139" s="13" t="s">
         <v>7</v>
       </c>
@@ -17311,7 +17311,7 @@
       </c>
     </row>
     <row r="148" spans="3:8" ht="33" customHeight="1">
-      <c r="C148" s="108">
+      <c r="C148" s="82">
         <v>1</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -17331,7 +17331,7 @@
       </c>
     </row>
     <row r="149" spans="3:8" ht="33" customHeight="1" thickBot="1">
-      <c r="C149" s="109"/>
+      <c r="C149" s="83"/>
       <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
@@ -17343,7 +17343,7 @@
       <c r="H149" s="81"/>
     </row>
     <row r="150" spans="3:8" ht="66" customHeight="1">
-      <c r="C150" s="108">
+      <c r="C150" s="82">
         <v>2</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -17363,7 +17363,7 @@
       </c>
     </row>
     <row r="151" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C151" s="109"/>
+      <c r="C151" s="83"/>
       <c r="D151" s="13" t="s">
         <v>7</v>
       </c>
@@ -17809,30 +17809,88 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="C179:E180"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="E183:H183"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="E173:H173"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="C169:E170"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="C157:E158"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E151:H151"/>
-    <mergeCell ref="C145:E146"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C189:E190"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E193:H193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="E195:H195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="C133:E134"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C121:E122"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C111:E112"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C97:E98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="E28:H28"/>
@@ -17857,88 +17915,30 @@
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C97:E98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C121:E122"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C111:E112"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C133:E134"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C189:E190"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="E193:H193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="E195:H195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="C157:E158"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="C145:E146"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C179:E180"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="E183:H183"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="C169:E170"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17950,7 +17950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF6FD2-D895-433B-BA5E-506A3DBBE8BB}">
   <dimension ref="C2:N345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+    <sheetView topLeftCell="A337" workbookViewId="0">
       <selection activeCell="E341" sqref="E341:H341"/>
     </sheetView>
   </sheetViews>
@@ -18063,12 +18063,12 @@
       <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
       <c r="J7" s="68" t="s">
         <v>155</v>
       </c>
@@ -18111,12 +18111,12 @@
       <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="J9" s="68" t="s">
         <v>449</v>
       </c>
@@ -18159,12 +18159,12 @@
       <c r="D11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="96"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
       <c r="J11" s="68" t="s">
         <v>452</v>
       </c>
@@ -18207,12 +18207,12 @@
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="J13" s="68" t="s">
         <v>454</v>
       </c>
@@ -18255,12 +18255,12 @@
       <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="J15" s="68" t="s">
         <v>457</v>
       </c>
@@ -18302,12 +18302,12 @@
       <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="96"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
       <c r="J17" s="68" t="s">
         <v>458</v>
       </c>
@@ -18350,12 +18350,12 @@
       <c r="D19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
       <c r="J19" s="68" t="s">
         <v>460</v>
       </c>
@@ -18398,12 +18398,12 @@
       <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="3:12" ht="35.25" customHeight="1">
       <c r="C22" s="77">
@@ -18437,12 +18437,12 @@
       <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
       <c r="J23" s="68" t="s">
         <v>11</v>
       </c>
@@ -18483,12 +18483,12 @@
       <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="87" t="s">
         <v>462</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="3:12" ht="35.25" customHeight="1">
       <c r="C26" s="77">
@@ -18515,12 +18515,12 @@
       <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="87" t="s">
         <v>443</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
     </row>
     <row r="28" spans="3:12" ht="35.25" customHeight="1">
       <c r="C28" s="77"/>
@@ -18535,10 +18535,10 @@
       <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
     </row>
     <row r="30" spans="3:12" ht="90" customHeight="1">
       <c r="C30" s="77"/>
@@ -18553,10 +18553,10 @@
       <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
     </row>
     <row r="32" spans="3:12" ht="16.5" customHeight="1">
       <c r="C32" s="34"/>
@@ -18649,10 +18649,10 @@
     <row r="41" spans="3:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="C41" s="78"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="3:8">
       <c r="D42" s="3"/>
@@ -18757,12 +18757,12 @@
       <c r="D51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="96"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" spans="3:8" ht="79.5" customHeight="1">
       <c r="C52" s="77">
@@ -18789,12 +18789,12 @@
       <c r="D53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="96"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="54" spans="3:8" ht="45.75" customHeight="1">
       <c r="C54" s="77">
@@ -18821,12 +18821,12 @@
       <c r="D55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="96"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
     </row>
     <row r="56" spans="3:8" ht="56.25" customHeight="1">
       <c r="C56" s="77">
@@ -18853,12 +18853,12 @@
       <c r="D57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="96"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="92"/>
     </row>
     <row r="58" spans="3:8" ht="45.75" customHeight="1">
       <c r="C58" s="77"/>
@@ -18873,10 +18873,10 @@
       <c r="D59" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="96"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="92"/>
     </row>
     <row r="60" spans="3:8" ht="58.5" customHeight="1">
       <c r="C60" s="77"/>
@@ -18891,10 +18891,10 @@
       <c r="D61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="96"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="92"/>
     </row>
     <row r="62" spans="3:8" ht="42" customHeight="1">
       <c r="D62" s="3"/>
@@ -18999,12 +18999,12 @@
       <c r="D71" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="90" t="s">
+      <c r="E71" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="86"/>
     </row>
     <row r="72" spans="3:8" ht="82.5" customHeight="1">
       <c r="C72" s="77">
@@ -19031,12 +19031,12 @@
       <c r="D73" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="90" t="s">
+      <c r="E73" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="92"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
     </row>
     <row r="74" spans="3:8" ht="30" customHeight="1">
       <c r="C74" s="77">
@@ -19063,12 +19063,12 @@
       <c r="D75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="92"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="86"/>
     </row>
     <row r="76" spans="3:8" ht="30" customHeight="1">
       <c r="C76" s="77"/>
@@ -19083,10 +19083,10 @@
       <c r="D77" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="92"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="86"/>
     </row>
     <row r="78" spans="3:8" ht="30" customHeight="1">
       <c r="C78" s="77"/>
@@ -19101,10 +19101,10 @@
       <c r="D79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="90"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="92"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="86"/>
     </row>
     <row r="80" spans="3:8" ht="96" customHeight="1">
       <c r="C80" s="77"/>
@@ -19119,10 +19119,10 @@
       <c r="D81" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="90"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="92"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="86"/>
     </row>
     <row r="82" spans="3:8">
       <c r="D82" s="3"/>
@@ -19203,7 +19203,7 @@
       </c>
     </row>
     <row r="90" spans="3:8" ht="48.75" customHeight="1">
-      <c r="C90" s="115">
+      <c r="C90" s="116">
         <v>1</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -19223,16 +19223,16 @@
       </c>
     </row>
     <row r="91" spans="3:8" ht="48.75" customHeight="1" thickBot="1">
-      <c r="C91" s="116"/>
+      <c r="C91" s="117"/>
       <c r="D91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="91" t="s">
+      <c r="E91" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="92"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="86"/>
     </row>
     <row r="92" spans="3:8" ht="48.75" customHeight="1">
       <c r="C92" s="77">
@@ -19259,12 +19259,12 @@
       <c r="D93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="90" t="s">
+      <c r="E93" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="92"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="86"/>
     </row>
     <row r="94" spans="3:8" ht="48.75" customHeight="1">
       <c r="C94" s="77">
@@ -19291,12 +19291,12 @@
       <c r="D95" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="90" t="s">
+      <c r="E95" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="92"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="86"/>
     </row>
     <row r="96" spans="3:8" ht="48.75" customHeight="1">
       <c r="C96" s="77">
@@ -19323,12 +19323,12 @@
       <c r="D97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="90" t="s">
+      <c r="E97" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="92"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="86"/>
     </row>
     <row r="98" spans="3:8" ht="48.75" customHeight="1">
       <c r="C98" s="77">
@@ -19355,12 +19355,12 @@
       <c r="D99" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="90" t="s">
+      <c r="E99" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="F99" s="91"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="92"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="86"/>
     </row>
     <row r="100" spans="3:8" ht="48.75" customHeight="1">
       <c r="C100" s="77">
@@ -19387,12 +19387,12 @@
       <c r="D101" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="90" t="s">
+      <c r="E101" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="F101" s="91"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="92"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="86"/>
     </row>
     <row r="102" spans="3:8" ht="48.75" customHeight="1">
       <c r="C102" s="77">
@@ -19419,12 +19419,12 @@
       <c r="D103" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="90" t="s">
+      <c r="E103" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="92"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="86"/>
     </row>
     <row r="104" spans="3:8" ht="48.75" customHeight="1">
       <c r="C104" s="77">
@@ -19451,12 +19451,12 @@
       <c r="D105" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="90" t="s">
+      <c r="E105" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="92"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="86"/>
     </row>
     <row r="106" spans="3:8" ht="48.75" customHeight="1">
       <c r="C106" s="77">
@@ -19483,12 +19483,12 @@
       <c r="D107" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E107" s="90" t="s">
+      <c r="E107" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="92"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="86"/>
     </row>
     <row r="108" spans="3:8" ht="48.75" customHeight="1">
       <c r="C108" s="77">
@@ -19515,12 +19515,12 @@
       <c r="D109" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="90" t="s">
+      <c r="E109" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="F109" s="91"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="92"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="86"/>
     </row>
     <row r="110" spans="3:8" ht="48.75" customHeight="1">
       <c r="C110" s="77">
@@ -19547,12 +19547,12 @@
       <c r="D111" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="92"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="86"/>
     </row>
     <row r="112" spans="3:8" ht="48.75" customHeight="1">
       <c r="C112" s="77">
@@ -19579,12 +19579,12 @@
       <c r="D113" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="90" t="s">
+      <c r="E113" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="92"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="86"/>
     </row>
     <row r="114" spans="3:8" ht="16.5" customHeight="1">
       <c r="C114" s="77">
@@ -19611,12 +19611,12 @@
       <c r="D115" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="92"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="86"/>
     </row>
     <row r="116" spans="3:8" ht="72" customHeight="1">
       <c r="C116" s="77">
@@ -19643,10 +19643,10 @@
       <c r="D117" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="90"/>
-      <c r="F117" s="91"/>
-      <c r="G117" s="91"/>
-      <c r="H117" s="92"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="86"/>
     </row>
     <row r="118" spans="3:8" ht="33">
       <c r="C118" s="77">
@@ -19673,12 +19673,12 @@
       <c r="D119" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="90" t="s">
+      <c r="E119" s="91" t="s">
         <v>347</v>
       </c>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="92"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="86"/>
     </row>
     <row r="120" spans="3:8" ht="16.5" customHeight="1">
       <c r="C120" s="77">
@@ -19705,12 +19705,12 @@
       <c r="D121" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="92"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="86"/>
     </row>
     <row r="122" spans="3:8" ht="49.5" customHeight="1">
       <c r="C122" s="77">
@@ -19737,12 +19737,12 @@
       <c r="D123" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
-      <c r="H123" s="92"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="86"/>
     </row>
     <row r="124" spans="3:8" ht="69" customHeight="1">
       <c r="C124" s="77">
@@ -19769,12 +19769,12 @@
       <c r="D125" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="90" t="s">
+      <c r="E125" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="92"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="86"/>
     </row>
     <row r="126" spans="3:8" ht="33">
       <c r="C126" s="77">
@@ -19801,12 +19801,12 @@
       <c r="D127" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="90" t="s">
+      <c r="E127" s="91" t="s">
         <v>371</v>
       </c>
-      <c r="F127" s="91"/>
-      <c r="G127" s="91"/>
-      <c r="H127" s="92"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="86"/>
     </row>
     <row r="128" spans="3:8" ht="82.5">
       <c r="C128" s="77">
@@ -19833,12 +19833,12 @@
       <c r="D129" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="F129" s="91"/>
-      <c r="G129" s="91"/>
-      <c r="H129" s="92"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="86"/>
     </row>
     <row r="130" spans="3:9" ht="78.75" customHeight="1">
       <c r="C130" s="77">
@@ -19865,12 +19865,12 @@
       <c r="D131" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="90" t="s">
+      <c r="E131" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="F131" s="91"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="92"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="86"/>
     </row>
     <row r="132" spans="3:9" ht="40.5" customHeight="1">
       <c r="C132" s="77">
@@ -19897,12 +19897,12 @@
       <c r="D133" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="90" t="s">
+      <c r="E133" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="F133" s="91"/>
-      <c r="G133" s="91"/>
-      <c r="H133" s="92"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="86"/>
     </row>
     <row r="134" spans="3:9" ht="40.5" customHeight="1">
       <c r="C134" s="77">
@@ -19929,12 +19929,12 @@
       <c r="D135" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="90" t="s">
+      <c r="E135" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="F135" s="91"/>
-      <c r="G135" s="91"/>
-      <c r="H135" s="92"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="86"/>
     </row>
     <row r="136" spans="3:9" ht="102" customHeight="1">
       <c r="C136" s="77">
@@ -19961,12 +19961,12 @@
       <c r="D137" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="90" t="s">
+      <c r="E137" s="91" t="s">
         <v>386</v>
       </c>
-      <c r="F137" s="91"/>
-      <c r="G137" s="91"/>
-      <c r="H137" s="92"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="86"/>
     </row>
     <row r="138" spans="3:9" ht="107.25" customHeight="1">
       <c r="C138" s="77">
@@ -19993,12 +19993,12 @@
       <c r="D139" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="90" t="s">
+      <c r="E139" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="F139" s="91"/>
-      <c r="G139" s="91"/>
-      <c r="H139" s="92"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="86"/>
     </row>
     <row r="140" spans="3:9" ht="40.5" customHeight="1">
       <c r="C140" s="77">
@@ -20025,12 +20025,12 @@
       <c r="D141" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="90" t="s">
+      <c r="E141" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="91"/>
-      <c r="G141" s="91"/>
-      <c r="H141" s="92"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="86"/>
     </row>
     <row r="142" spans="3:9" ht="40.5" customHeight="1">
       <c r="C142" s="77">
@@ -20060,12 +20060,12 @@
       <c r="D143" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="90" t="s">
+      <c r="E143" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="F143" s="91"/>
-      <c r="G143" s="91"/>
-      <c r="H143" s="92"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="86"/>
     </row>
     <row r="144" spans="3:9" ht="66">
       <c r="C144" s="77">
@@ -20092,12 +20092,12 @@
       <c r="D145" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="90" t="s">
+      <c r="E145" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="92"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="86"/>
     </row>
     <row r="146" spans="3:8" ht="40.5" customHeight="1">
       <c r="C146" s="77">
@@ -20124,12 +20124,12 @@
       <c r="D147" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="90" t="s">
+      <c r="E147" s="91" t="s">
         <v>412</v>
       </c>
-      <c r="F147" s="91"/>
-      <c r="G147" s="91"/>
-      <c r="H147" s="92"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="86"/>
     </row>
     <row r="148" spans="3:8" ht="49.5">
       <c r="C148" s="77">
@@ -20156,12 +20156,12 @@
       <c r="D149" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="90" t="s">
+      <c r="E149" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="F149" s="91"/>
-      <c r="G149" s="91"/>
-      <c r="H149" s="92"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="86"/>
     </row>
     <row r="150" spans="3:8" ht="49.5">
       <c r="C150" s="77">
@@ -20188,12 +20188,12 @@
       <c r="D151" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="90" t="s">
+      <c r="E151" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="F151" s="91"/>
-      <c r="G151" s="91"/>
-      <c r="H151" s="92"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="86"/>
     </row>
     <row r="152" spans="3:8" ht="40.5" customHeight="1">
       <c r="C152" s="77">
@@ -20220,12 +20220,12 @@
       <c r="D153" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="90" t="s">
+      <c r="E153" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91"/>
-      <c r="H153" s="92"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="86"/>
     </row>
     <row r="154" spans="3:8" ht="69.75" customHeight="1">
       <c r="C154" s="77">
@@ -20252,12 +20252,12 @@
       <c r="D155" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="90" t="s">
+      <c r="E155" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="F155" s="91"/>
-      <c r="G155" s="91"/>
-      <c r="H155" s="92"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="86"/>
     </row>
     <row r="156" spans="3:8" ht="40.5" customHeight="1">
       <c r="C156" s="77">
@@ -20284,12 +20284,12 @@
       <c r="D157" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="90" t="s">
+      <c r="E157" s="91" t="s">
         <v>435</v>
       </c>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="92"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="86"/>
     </row>
     <row r="158" spans="3:8" ht="40.5" customHeight="1">
       <c r="C158" s="77">
@@ -20316,12 +20316,12 @@
       <c r="D159" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="90" t="s">
+      <c r="E159" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="F159" s="91"/>
-      <c r="G159" s="91"/>
-      <c r="H159" s="92"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="86"/>
     </row>
     <row r="160" spans="3:8" ht="40.5" customHeight="1">
       <c r="C160" s="77">
@@ -20348,12 +20348,12 @@
       <c r="D161" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="90" t="s">
+      <c r="E161" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="F161" s="91"/>
-      <c r="G161" s="91"/>
-      <c r="H161" s="92"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="86"/>
     </row>
     <row r="162" spans="3:8" ht="40.5" customHeight="1">
       <c r="C162" s="77">
@@ -20380,12 +20380,12 @@
       <c r="D163" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="90" t="s">
+      <c r="E163" s="91" t="s">
         <v>445</v>
       </c>
-      <c r="F163" s="91"/>
-      <c r="G163" s="91"/>
-      <c r="H163" s="92"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="86"/>
     </row>
     <row r="164" spans="3:8" ht="49.5">
       <c r="C164" s="77">
@@ -20412,12 +20412,12 @@
       <c r="D165" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E165" s="90" t="s">
+      <c r="E165" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="F165" s="91"/>
-      <c r="G165" s="91"/>
-      <c r="H165" s="92"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="86"/>
     </row>
     <row r="166" spans="3:8" ht="40.5" customHeight="1">
       <c r="C166" s="77">
@@ -20444,12 +20444,12 @@
       <c r="D167" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="90" t="s">
+      <c r="E167" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="F167" s="91"/>
-      <c r="G167" s="91"/>
-      <c r="H167" s="92"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="86"/>
     </row>
     <row r="168" spans="3:8" ht="40.5" customHeight="1">
       <c r="C168" s="77">
@@ -20476,12 +20476,12 @@
       <c r="D169" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="90" t="s">
+      <c r="E169" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="F169" s="91"/>
-      <c r="G169" s="91"/>
-      <c r="H169" s="92"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="86"/>
     </row>
     <row r="170" spans="3:8" ht="40.5" customHeight="1">
       <c r="C170" s="77"/>
@@ -20496,10 +20496,10 @@
       <c r="D171" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="90"/>
-      <c r="F171" s="91"/>
-      <c r="G171" s="91"/>
-      <c r="H171" s="92"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="86"/>
     </row>
     <row r="172" spans="3:8" ht="40.5" customHeight="1">
       <c r="C172" s="77"/>
@@ -20514,10 +20514,10 @@
       <c r="D173" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="90"/>
-      <c r="F173" s="91"/>
-      <c r="G173" s="91"/>
-      <c r="H173" s="92"/>
+      <c r="E173" s="91"/>
+      <c r="F173" s="85"/>
+      <c r="G173" s="85"/>
+      <c r="H173" s="86"/>
     </row>
     <row r="174" spans="3:8">
       <c r="C174" s="77"/>
@@ -20532,10 +20532,10 @@
       <c r="D175" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="90"/>
-      <c r="F175" s="91"/>
-      <c r="G175" s="91"/>
-      <c r="H175" s="92"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="86"/>
     </row>
     <row r="176" spans="3:8">
       <c r="D176" s="3"/>
@@ -21157,7 +21157,7 @@
       <c r="N227" s="3"/>
     </row>
     <row r="228" spans="3:14" ht="66">
-      <c r="C228" s="108">
+      <c r="C228" s="82">
         <v>1</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -21177,7 +21177,7 @@
       </c>
     </row>
     <row r="229" spans="3:14" ht="119.25" customHeight="1" thickBot="1">
-      <c r="C229" s="109"/>
+      <c r="C229" s="83"/>
       <c r="D229" s="13" t="s">
         <v>7</v>
       </c>
@@ -21189,7 +21189,7 @@
       <c r="H229" s="81"/>
     </row>
     <row r="230" spans="3:14" ht="119.25" customHeight="1">
-      <c r="C230" s="108">
+      <c r="C230" s="82">
         <v>2</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -21209,7 +21209,7 @@
       </c>
     </row>
     <row r="231" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C231" s="109"/>
+      <c r="C231" s="83"/>
       <c r="D231" s="13" t="s">
         <v>7</v>
       </c>
@@ -21219,7 +21219,7 @@
       <c r="H231" s="81"/>
     </row>
     <row r="232" spans="3:14" ht="16.5" customHeight="1">
-      <c r="C232" s="108">
+      <c r="C232" s="82">
         <v>3</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -21239,7 +21239,7 @@
       </c>
     </row>
     <row r="233" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C233" s="109"/>
+      <c r="C233" s="83"/>
       <c r="D233" s="13" t="s">
         <v>7</v>
       </c>
@@ -21249,7 +21249,7 @@
       <c r="H233" s="81"/>
     </row>
     <row r="234" spans="3:14" ht="16.5" customHeight="1">
-      <c r="C234" s="108">
+      <c r="C234" s="82">
         <v>4</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -21269,7 +21269,7 @@
       </c>
     </row>
     <row r="235" spans="3:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C235" s="109"/>
+      <c r="C235" s="83"/>
       <c r="D235" s="13" t="s">
         <v>7</v>
       </c>
@@ -21357,7 +21357,7 @@
       </c>
     </row>
     <row r="244" spans="3:8" ht="66" customHeight="1">
-      <c r="C244" s="108">
+      <c r="C244" s="82">
         <v>1</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -21377,7 +21377,7 @@
       </c>
     </row>
     <row r="245" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C245" s="109"/>
+      <c r="C245" s="83"/>
       <c r="D245" s="13" t="s">
         <v>7</v>
       </c>
@@ -21389,7 +21389,7 @@
       <c r="H245" s="81"/>
     </row>
     <row r="246" spans="3:8" ht="65.25" customHeight="1">
-      <c r="C246" s="108">
+      <c r="C246" s="82">
         <v>2</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -21409,7 +21409,7 @@
       </c>
     </row>
     <row r="247" spans="3:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C247" s="109"/>
+      <c r="C247" s="83"/>
       <c r="D247" s="13" t="s">
         <v>7</v>
       </c>
@@ -21421,7 +21421,7 @@
       <c r="H247" s="81"/>
     </row>
     <row r="248" spans="3:8" ht="40.5" customHeight="1">
-      <c r="C248" s="108">
+      <c r="C248" s="82">
         <v>3</v>
       </c>
       <c r="D248" s="6" t="s">
@@ -21441,7 +21441,7 @@
       </c>
     </row>
     <row r="249" spans="3:8" ht="96.75" customHeight="1" thickBot="1">
-      <c r="C249" s="109"/>
+      <c r="C249" s="83"/>
       <c r="D249" s="13" t="s">
         <v>7</v>
       </c>
@@ -21453,7 +21453,7 @@
       <c r="H249" s="81"/>
     </row>
     <row r="250" spans="3:8" ht="49.5">
-      <c r="C250" s="108">
+      <c r="C250" s="82">
         <v>4</v>
       </c>
       <c r="D250" s="6" t="s">
@@ -21473,7 +21473,7 @@
       </c>
     </row>
     <row r="251" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C251" s="109"/>
+      <c r="C251" s="83"/>
       <c r="D251" s="13" t="s">
         <v>7</v>
       </c>
@@ -21761,9 +21761,9 @@
       <c r="H285" s="113"/>
     </row>
     <row r="286" spans="3:9" ht="15" customHeight="1" thickBot="1">
-      <c r="C286" s="117"/>
-      <c r="D286" s="117"/>
-      <c r="E286" s="117"/>
+      <c r="C286" s="115"/>
+      <c r="D286" s="115"/>
+      <c r="E286" s="115"/>
       <c r="F286" s="111"/>
       <c r="G286" s="114"/>
       <c r="H286" s="111"/>
@@ -21789,7 +21789,7 @@
       </c>
     </row>
     <row r="288" spans="3:9">
-      <c r="C288" s="108"/>
+      <c r="C288" s="82"/>
       <c r="D288" s="6"/>
       <c r="E288" s="30"/>
       <c r="F288" s="8"/>
@@ -21797,7 +21797,7 @@
       <c r="H288" s="12"/>
     </row>
     <row r="289" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C289" s="109"/>
+      <c r="C289" s="83"/>
       <c r="D289" s="13"/>
       <c r="E289" s="79"/>
       <c r="F289" s="80"/>
@@ -21856,7 +21856,7 @@
       </c>
     </row>
     <row r="298" spans="3:8" ht="49.5">
-      <c r="C298" s="108">
+      <c r="C298" s="82">
         <v>1</v>
       </c>
       <c r="D298" s="6" t="s">
@@ -21876,7 +21876,7 @@
       </c>
     </row>
     <row r="299" spans="3:8" ht="60" customHeight="1" thickBot="1">
-      <c r="C299" s="109"/>
+      <c r="C299" s="83"/>
       <c r="D299" s="13" t="s">
         <v>7</v>
       </c>
@@ -21888,7 +21888,7 @@
       <c r="H299" s="81"/>
     </row>
     <row r="300" spans="3:8" ht="84.75" customHeight="1">
-      <c r="C300" s="108">
+      <c r="C300" s="82">
         <v>2</v>
       </c>
       <c r="D300" s="6" t="s">
@@ -21908,7 +21908,7 @@
       </c>
     </row>
     <row r="301" spans="3:8">
-      <c r="C301" s="109"/>
+      <c r="C301" s="83"/>
       <c r="D301" s="13" t="s">
         <v>7</v>
       </c>
@@ -21920,7 +21920,7 @@
       <c r="H301" s="81"/>
     </row>
     <row r="302" spans="3:8" ht="33">
-      <c r="C302" s="108">
+      <c r="C302" s="82">
         <v>3</v>
       </c>
       <c r="D302" s="6" t="s">
@@ -21940,7 +21940,7 @@
       </c>
     </row>
     <row r="303" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C303" s="109"/>
+      <c r="C303" s="83"/>
       <c r="D303" s="13" t="s">
         <v>7</v>
       </c>
@@ -21952,7 +21952,7 @@
       <c r="H303" s="81"/>
     </row>
     <row r="304" spans="3:8" ht="42.75" customHeight="1">
-      <c r="C304" s="108">
+      <c r="C304" s="82">
         <v>3</v>
       </c>
       <c r="D304" s="6" t="s">
@@ -21972,7 +21972,7 @@
       </c>
     </row>
     <row r="305" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C305" s="109"/>
+      <c r="C305" s="83"/>
       <c r="D305" s="13" t="s">
         <v>7</v>
       </c>
@@ -21984,7 +21984,7 @@
       <c r="H305" s="81"/>
     </row>
     <row r="306" spans="3:8" ht="49.5">
-      <c r="C306" s="108">
+      <c r="C306" s="82">
         <v>4</v>
       </c>
       <c r="D306" s="6" t="s">
@@ -22004,7 +22004,7 @@
       </c>
     </row>
     <row r="307" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C307" s="109"/>
+      <c r="C307" s="83"/>
       <c r="D307" s="13" t="s">
         <v>7</v>
       </c>
@@ -22040,12 +22040,12 @@
       <c r="D309" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E309" s="97" t="s">
+      <c r="E309" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F309" s="91"/>
-      <c r="G309" s="91"/>
-      <c r="H309" s="92"/>
+      <c r="F309" s="85"/>
+      <c r="G309" s="85"/>
+      <c r="H309" s="86"/>
     </row>
     <row r="310" spans="3:8" ht="49.5">
       <c r="C310" s="77">
@@ -22072,12 +22072,12 @@
       <c r="D311" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E311" s="98" t="s">
+      <c r="E311" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="F311" s="91"/>
-      <c r="G311" s="91"/>
-      <c r="H311" s="92"/>
+      <c r="F311" s="85"/>
+      <c r="G311" s="85"/>
+      <c r="H311" s="86"/>
     </row>
     <row r="312" spans="3:8" ht="82.5">
       <c r="C312" s="77">
@@ -22104,15 +22104,15 @@
       <c r="D313" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E313" s="98" t="s">
+      <c r="E313" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="F313" s="91"/>
-      <c r="G313" s="91"/>
-      <c r="H313" s="92"/>
+      <c r="F313" s="85"/>
+      <c r="G313" s="85"/>
+      <c r="H313" s="86"/>
     </row>
     <row r="314" spans="3:8" ht="33">
-      <c r="C314" s="108">
+      <c r="C314" s="82">
         <v>8</v>
       </c>
       <c r="D314" s="6" t="s">
@@ -22132,7 +22132,7 @@
       </c>
     </row>
     <row r="315" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C315" s="109"/>
+      <c r="C315" s="83"/>
       <c r="D315" s="13" t="s">
         <v>7</v>
       </c>
@@ -22144,7 +22144,7 @@
       <c r="H315" s="81"/>
     </row>
     <row r="316" spans="3:8" ht="34.5" customHeight="1">
-      <c r="C316" s="108">
+      <c r="C316" s="82">
         <v>9</v>
       </c>
       <c r="D316" s="6" t="s">
@@ -22164,7 +22164,7 @@
       </c>
     </row>
     <row r="317" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C317" s="109"/>
+      <c r="C317" s="83"/>
       <c r="D317" s="13" t="s">
         <v>7</v>
       </c>
@@ -22176,7 +22176,7 @@
       <c r="H317" s="81"/>
     </row>
     <row r="318" spans="3:8">
-      <c r="C318" s="108"/>
+      <c r="C318" s="82"/>
       <c r="D318" s="6"/>
       <c r="E318" s="37"/>
       <c r="F318" s="15"/>
@@ -22184,7 +22184,7 @@
       <c r="H318" s="12"/>
     </row>
     <row r="319" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C319" s="109"/>
+      <c r="C319" s="83"/>
       <c r="D319" s="13" t="s">
         <v>7</v>
       </c>
@@ -22194,7 +22194,7 @@
       <c r="H319" s="81"/>
     </row>
     <row r="320" spans="3:8">
-      <c r="C320" s="108"/>
+      <c r="C320" s="82"/>
       <c r="D320" s="6"/>
       <c r="E320" s="37"/>
       <c r="F320" s="15"/>
@@ -22202,7 +22202,7 @@
       <c r="H320" s="12"/>
     </row>
     <row r="321" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C321" s="109"/>
+      <c r="C321" s="83"/>
       <c r="D321" s="13" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22263,7 @@
       </c>
     </row>
     <row r="332" spans="3:8" ht="49.5">
-      <c r="C332" s="108">
+      <c r="C332" s="82">
         <v>1</v>
       </c>
       <c r="D332" s="6" t="s">
@@ -22283,7 +22283,7 @@
       </c>
     </row>
     <row r="333" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C333" s="109"/>
+      <c r="C333" s="83"/>
       <c r="D333" s="13" t="s">
         <v>7</v>
       </c>
@@ -22295,7 +22295,7 @@
       <c r="H333" s="81"/>
     </row>
     <row r="334" spans="3:8" ht="82.5">
-      <c r="C334" s="108">
+      <c r="C334" s="82">
         <v>2</v>
       </c>
       <c r="D334" s="6" t="s">
@@ -22315,7 +22315,7 @@
       </c>
     </row>
     <row r="335" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C335" s="109"/>
+      <c r="C335" s="83"/>
       <c r="D335" s="13" t="s">
         <v>7</v>
       </c>
@@ -22327,7 +22327,7 @@
       <c r="H335" s="81"/>
     </row>
     <row r="336" spans="3:8" ht="66">
-      <c r="C336" s="108">
+      <c r="C336" s="82">
         <v>3</v>
       </c>
       <c r="D336" s="6" t="s">
@@ -22347,7 +22347,7 @@
       </c>
     </row>
     <row r="337" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C337" s="109"/>
+      <c r="C337" s="83"/>
       <c r="D337" s="13" t="s">
         <v>7</v>
       </c>
@@ -22359,7 +22359,7 @@
       <c r="H337" s="81"/>
     </row>
     <row r="338" spans="3:8" ht="33">
-      <c r="C338" s="108">
+      <c r="C338" s="82">
         <v>4</v>
       </c>
       <c r="D338" s="6" t="s">
@@ -22379,7 +22379,7 @@
       </c>
     </row>
     <row r="339" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C339" s="109"/>
+      <c r="C339" s="83"/>
       <c r="D339" s="13" t="s">
         <v>7</v>
       </c>
@@ -22391,7 +22391,7 @@
       <c r="H339" s="81"/>
     </row>
     <row r="340" spans="3:8" ht="33">
-      <c r="C340" s="108">
+      <c r="C340" s="82">
         <v>5</v>
       </c>
       <c r="D340" s="6" t="s">
@@ -22411,7 +22411,7 @@
       </c>
     </row>
     <row r="341" spans="3:8" ht="76.5" customHeight="1" thickBot="1">
-      <c r="C341" s="109"/>
+      <c r="C341" s="83"/>
       <c r="D341" s="13" t="s">
         <v>7</v>
       </c>
@@ -22423,7 +22423,7 @@
       <c r="H341" s="81"/>
     </row>
     <row r="342" spans="3:8">
-      <c r="C342" s="108"/>
+      <c r="C342" s="82"/>
       <c r="D342" s="6"/>
       <c r="E342" s="63"/>
       <c r="F342" s="27"/>
@@ -22431,7 +22431,7 @@
       <c r="H342" s="59"/>
     </row>
     <row r="343" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C343" s="109"/>
+      <c r="C343" s="83"/>
       <c r="D343" s="13" t="s">
         <v>7</v>
       </c>
@@ -22441,7 +22441,7 @@
       <c r="H343" s="81"/>
     </row>
     <row r="344" spans="3:8">
-      <c r="C344" s="108"/>
+      <c r="C344" s="82"/>
       <c r="D344" s="6"/>
       <c r="E344" s="63"/>
       <c r="F344" s="27"/>
@@ -22449,7 +22449,7 @@
       <c r="H344" s="59"/>
     </row>
     <row r="345" spans="3:8" ht="17.25" thickBot="1">
-      <c r="C345" s="109"/>
+      <c r="C345" s="83"/>
       <c r="D345" s="13" t="s">
         <v>7</v>
       </c>
@@ -22460,6 +22460,258 @@
     </row>
   </sheetData>
   <mergeCells count="276">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="E337:H337"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="C257:E258"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="G241:H242"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="G257:H258"/>
+    <mergeCell ref="C241:E242"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="C205:E206"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="C181:E182"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="E199:H199"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="E175:H175"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="C225:E226"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="E233:H233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="E301:H301"/>
+    <mergeCell ref="C295:E296"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="E299:H299"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="E289:H289"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="C269:E270"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="E279:H279"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="G269:H270"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="E277:H277"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E147:H147"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="E145:H145"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="E185:H185"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E169:H169"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="E167:H167"/>
+    <mergeCell ref="E171:H171"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="E229:H229"/>
+    <mergeCell ref="E219:H219"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="E231:H231"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="E335:H335"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="E307:H307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="E309:H309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="E311:H311"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="E313:H313"/>
+    <mergeCell ref="C329:E330"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="E333:H333"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="E319:H319"/>
+    <mergeCell ref="E321:H321"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="E275:H275"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="E273:H273"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E117:H117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E119:H119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="E187:H187"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E139:H139"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="E153:H153"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E151:H151"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="E345:H345"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E125:H125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E131:H131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E133:H133"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E137:H137"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E135:H135"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="E143:H143"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="E339:H339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="E341:H341"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="E343:H343"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:H206"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:H226"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="G285:H286"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="G295:H296"/>
+    <mergeCell ref="F329:F330"/>
+    <mergeCell ref="G329:H330"/>
+    <mergeCell ref="C285:E286"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="E213:H213"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="G87:H88"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="E195:H195"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E193:H193"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="E159:H159"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="E157:H157"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="E155:H155"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="E165:H165"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E163:H163"/>
     <mergeCell ref="C196:C197"/>
     <mergeCell ref="E197:H197"/>
     <mergeCell ref="C190:C191"/>
@@ -22484,258 +22736,6 @@
     <mergeCell ref="E303:H303"/>
     <mergeCell ref="C304:C305"/>
     <mergeCell ref="E305:H305"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="E195:H195"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="E193:H193"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="E159:H159"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="E157:H157"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="E155:H155"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="E173:H173"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="E165:H165"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="G87:H88"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="E339:H339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="E341:H341"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="E343:H343"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:H182"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:H206"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:H226"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="G285:H286"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="G295:H296"/>
-    <mergeCell ref="F329:F330"/>
-    <mergeCell ref="G329:H330"/>
-    <mergeCell ref="C285:E286"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="E213:H213"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="E345:H345"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E125:H125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E131:H131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E133:H133"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E137:H137"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E135:H135"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="E143:H143"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="E187:H187"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="E153:H153"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E151:H151"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E117:H117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:H115"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E119:H119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="E231:H231"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="E335:H335"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="E307:H307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="E309:H309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="E311:H311"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="E313:H313"/>
-    <mergeCell ref="C329:E330"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="E333:H333"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="E319:H319"/>
-    <mergeCell ref="E321:H321"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="E275:H275"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="E273:H273"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="E277:H277"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E147:H147"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="E145:H145"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="E185:H185"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E169:H169"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="E167:H167"/>
-    <mergeCell ref="E171:H171"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="E229:H229"/>
-    <mergeCell ref="E219:H219"/>
-    <mergeCell ref="C225:E226"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="E233:H233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="E301:H301"/>
-    <mergeCell ref="C295:E296"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="E299:H299"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="E289:H289"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="C269:E270"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="E279:H279"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="G269:H270"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="C205:E206"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="C181:E182"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="E199:H199"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="E175:H175"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="E337:H337"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="C257:E258"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="G241:H242"/>
-    <mergeCell ref="F257:F258"/>
-    <mergeCell ref="G257:H258"/>
-    <mergeCell ref="C241:E242"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22747,8 +22747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FF48C6-426D-44C5-A851-B799D6C65A30}">
   <dimension ref="A20:P377"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23012,13 +23012,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="39" t="s">
@@ -23044,18 +23044,18 @@
       <c r="E5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
     </row>
     <row r="6" spans="2:15" ht="34.5" customHeight="1">
       <c r="B6" s="38">
@@ -23070,18 +23070,18 @@
       <c r="E6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="2:15" ht="34.5" customHeight="1">
       <c r="B7" s="38">
@@ -23096,21 +23096,21 @@
       <c r="E7" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B8" s="120">
+      <c r="B8" s="122">
         <v>4</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -23122,21 +23122,21 @@
       <c r="E8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
     </row>
     <row r="9" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B9" s="120"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="40" t="s">
         <v>155</v>
       </c>
@@ -23146,19 +23146,19 @@
       <c r="E9" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
     </row>
     <row r="10" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B10" s="120">
+      <c r="B10" s="122">
         <v>5</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -23170,21 +23170,21 @@
       <c r="E10" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
     </row>
     <row r="11" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B11" s="120"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="40" t="s">
         <v>154</v>
       </c>
@@ -23194,16 +23194,16 @@
       <c r="E11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="38">
@@ -23218,21 +23218,21 @@
       <c r="E12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
     </row>
     <row r="13" spans="2:15" ht="37.5" customHeight="1">
-      <c r="B13" s="120">
+      <c r="B13" s="122">
         <v>7</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -23244,21 +23244,21 @@
       <c r="E13" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="120"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="43" t="s">
         <v>154</v>
       </c>
@@ -23268,16 +23268,16 @@
       <c r="E14" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
     </row>
     <row r="15" spans="2:15" ht="39" customHeight="1">
       <c r="B15" s="38">
@@ -23292,21 +23292,26 @@
       <c r="E15" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:O9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:O11"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="F12:O12"/>
@@ -23314,11 +23319,6 @@
     <mergeCell ref="F13:O14"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:O9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23366,16 +23366,16 @@
       <c r="F4" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="38">
@@ -23390,16 +23390,16 @@
       <c r="F5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
     </row>
     <row r="6" spans="3:15" ht="48" customHeight="1">
       <c r="C6" s="38">
@@ -23414,16 +23414,16 @@
       <c r="F6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
     </row>
     <row r="7" spans="3:15" ht="57" customHeight="1">
       <c r="C7" s="38">
@@ -23534,16 +23534,16 @@
       <c r="F11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
       <c r="O11" t="s">
         <v>11</v>
       </c>
@@ -23561,16 +23561,16 @@
       <c r="F12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
       <c r="O12" t="s">
         <v>11</v>
       </c>
@@ -23647,7 +23647,7 @@
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="120">
+      <c r="C4" s="122">
         <v>1</v>
       </c>
       <c r="D4" s="131" t="s">
@@ -23656,24 +23656,24 @@
       <c r="E4" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="120"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="130"/>
       <c r="E5" s="130"/>
-      <c r="F5" s="120"/>
+      <c r="F5" s="122"/>
       <c r="G5" s="128" t="s">
         <v>177</v>
       </c>
@@ -23697,15 +23697,15 @@
       <c r="F6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="38">
@@ -23720,15 +23720,15 @@
       <c r="F7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="38">
@@ -23743,15 +23743,15 @@
       <c r="F8" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
     </row>
     <row r="9" spans="3:13" ht="33" customHeight="1">
       <c r="C9" s="38">
@@ -23789,15 +23789,15 @@
       <c r="F10" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
     </row>
     <row r="11" spans="3:13" ht="39" customHeight="1">
       <c r="C11" s="38">
@@ -23812,18 +23812,23 @@
       <c r="F11" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="F4:F5"/>
@@ -23831,11 +23836,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
